--- a/작업완료포트폴리오/3. 기능정의서/[6기]1조_전자결재페이지_기능정의서_Ver1.6.xlsx
+++ b/작업완료포트폴리오/3. 기능정의서/[6기]1조_전자결재페이지_기능정의서_Ver1.6.xlsx
@@ -3213,6 +3213,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3231,6 +3264,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,15 +3297,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3261,9 +3309,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3273,182 +3318,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3665,10 +3665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="A1:K51"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3682,19 +3685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3712,17 +3715,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3744,32 +3747,32 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3778,16 +3781,16 @@
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
@@ -3799,16 +3802,16 @@
       <c r="B7" s="8">
         <v>43716</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="94"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
@@ -3820,16 +3823,16 @@
       <c r="B8" s="11">
         <v>43717</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="12" t="s">
         <v>26</v>
       </c>
@@ -3841,16 +3844,16 @@
       <c r="B9" s="14">
         <v>43724</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="15" t="s">
         <v>26</v>
       </c>
@@ -3862,16 +3865,16 @@
       <c r="B10" s="14">
         <v>43726</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
@@ -3883,16 +3886,16 @@
       <c r="B11" s="14">
         <v>43734</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="15" t="s">
         <v>26</v>
       </c>
@@ -3904,16 +3907,16 @@
       <c r="B12" s="14">
         <v>43764</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="15" t="s">
         <v>26</v>
       </c>
@@ -3925,16 +3928,16 @@
       <c r="B13" s="17">
         <v>43781</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="18" t="s">
         <v>26</v>
       </c>
@@ -3942,14 +3945,14 @@
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3965,48 +3968,48 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="6" t="s">
         <v>22</v>
       </c>
@@ -4015,17 +4018,17 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="94"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="9" t="s">
         <v>26</v>
       </c>
@@ -4034,17 +4037,17 @@
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
       <c r="K22" s="12" t="s">
         <v>26</v>
       </c>
@@ -4053,71 +4056,71 @@
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4137,50 +4140,50 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="103" t="s">
+      <c r="C34" s="88"/>
+      <c r="D34" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="105"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="88"/>
       <c r="K34" s="23" t="s">
         <v>22</v>
       </c>
@@ -4189,19 +4192,19 @@
       <c r="A35" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="106" t="s">
+      <c r="C35" s="96"/>
+      <c r="D35" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="94"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="96"/>
       <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
@@ -4210,19 +4213,19 @@
       <c r="A36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="99" t="s">
+      <c r="C36" s="80"/>
+      <c r="D36" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
       <c r="K36" s="12" t="s">
         <v>26</v>
       </c>
@@ -4231,19 +4234,19 @@
       <c r="A37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="99" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
       <c r="K37" s="12" t="s">
         <v>26</v>
       </c>
@@ -4255,16 +4258,16 @@
       <c r="B38" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="26" t="s">
         <v>26</v>
       </c>
@@ -4273,19 +4276,19 @@
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="99" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
       <c r="K39" s="12" t="s">
         <v>26</v>
       </c>
@@ -4294,19 +4297,19 @@
       <c r="A40" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="99" t="s">
+      <c r="C40" s="80"/>
+      <c r="D40" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
       <c r="K40" s="12" t="s">
         <v>26</v>
       </c>
@@ -4315,19 +4318,19 @@
       <c r="A41" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="108" t="s">
+      <c r="C41" s="80"/>
+      <c r="D41" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
       <c r="K41" s="15" t="s">
         <v>26</v>
       </c>
@@ -4336,19 +4339,19 @@
       <c r="A42" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="99" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
       <c r="K42" s="12" t="s">
         <v>26</v>
       </c>
@@ -4357,19 +4360,19 @@
       <c r="A43" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="108" t="s">
+      <c r="C43" s="80"/>
+      <c r="D43" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="15" t="s">
         <v>26</v>
       </c>
@@ -4378,19 +4381,19 @@
       <c r="A44" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="99" t="s">
+      <c r="C44" s="80"/>
+      <c r="D44" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="89"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
       <c r="K44" s="12" t="s">
         <v>26</v>
       </c>
@@ -4399,19 +4402,19 @@
       <c r="A45" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="99" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="12" t="s">
         <v>26</v>
       </c>
@@ -4420,19 +4423,19 @@
       <c r="A46" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="99" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="80"/>
       <c r="K46" s="12" t="s">
         <v>26</v>
       </c>
@@ -4441,19 +4444,19 @@
       <c r="A47" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="99" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="89"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
       <c r="K47" s="12" t="s">
         <v>26</v>
       </c>
@@ -4462,19 +4465,19 @@
       <c r="A48" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="99" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="89"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
       <c r="K48" s="12" t="s">
         <v>26</v>
       </c>
@@ -4483,19 +4486,19 @@
       <c r="A49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="99" t="s">
+      <c r="C49" s="80"/>
+      <c r="D49" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="89"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
       <c r="K49" s="12" t="s">
         <v>26</v>
       </c>
@@ -4504,19 +4507,19 @@
       <c r="A50" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="99" t="s">
+      <c r="C50" s="80"/>
+      <c r="D50" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="89"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
       <c r="K50" s="12" t="s">
         <v>26</v>
       </c>
@@ -4525,19 +4528,19 @@
       <c r="A51" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="83"/>
+      <c r="D51" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="83"/>
       <c r="K51" s="28" t="s">
         <v>26</v>
       </c>
@@ -5508,28 +5511,25 @@
     <row r="1015" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A18:K19"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B45:C45"/>
@@ -5546,29 +5546,33 @@
     <mergeCell ref="D38:J38"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A18:K19"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5600,49 +5604,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="131" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="123" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="125" t="s">
+      <c r="O1" s="140" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="33" t="s">
         <v>12</v>
       </c>
@@ -5664,8 +5668,8 @@
       <c r="M2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
@@ -5703,23 +5707,23 @@
       <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="130"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
@@ -5728,14 +5732,14 @@
       <c r="B6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="147"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
@@ -5761,10 +5765,10 @@
       <c r="B7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="148"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
@@ -5790,10 +5794,10 @@
       <c r="B8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="148"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="50"/>
       <c r="H8" s="49" t="s">
         <v>31</v>
@@ -5823,10 +5827,10 @@
       <c r="B9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="148"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
@@ -5852,10 +5856,10 @@
       <c r="B10" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="148"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
@@ -5881,10 +5885,10 @@
       <c r="B11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="148"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="50"/>
       <c r="H11" s="49" t="s">
         <v>31</v>
@@ -5914,10 +5918,10 @@
       <c r="B12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="148"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
@@ -5943,10 +5947,10 @@
       <c r="B13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -5972,10 +5976,10 @@
       <c r="B14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="148"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -6001,10 +6005,10 @@
       <c r="B15" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="148"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -6032,10 +6036,10 @@
       <c r="B16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="148"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="50"/>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
@@ -6061,10 +6065,10 @@
       <c r="B17" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="148"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
         <v>31</v>
@@ -6094,10 +6098,10 @@
       <c r="B18" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="148"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="50"/>
       <c r="H18" s="49" t="s">
         <v>31</v>
@@ -6127,12 +6131,12 @@
       <c r="B19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="113" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="155" t="s">
         <v>607</v>
       </c>
-      <c r="F19" s="148"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="50"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
@@ -6160,10 +6164,10 @@
       <c r="B20" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="148"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="50"/>
       <c r="H20" s="49" t="s">
         <v>31</v>
@@ -6193,10 +6197,10 @@
       <c r="B21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="148"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="50"/>
       <c r="H21" s="49" t="s">
         <v>31</v>
@@ -6226,10 +6230,10 @@
       <c r="B22" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="148"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="50"/>
       <c r="H22" s="49" t="s">
         <v>31</v>
@@ -6259,10 +6263,10 @@
       <c r="B23" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="149"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="50"/>
       <c r="H23" s="49"/>
       <c r="I23" s="50"/>
@@ -6290,12 +6294,12 @@
       <c r="B24" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="150"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="50"/>
       <c r="H24" s="49" t="s">
         <v>31</v>
@@ -6325,10 +6329,10 @@
       <c r="B25" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="151"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="50"/>
       <c r="H25" s="49"/>
       <c r="I25" s="50"/>
@@ -6354,10 +6358,10 @@
       <c r="B26" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="151"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="50"/>
       <c r="H26" s="49"/>
       <c r="I26" s="50"/>
@@ -6383,10 +6387,10 @@
       <c r="B27" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="151"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="50"/>
       <c r="H27" s="49"/>
       <c r="I27" s="50"/>
@@ -6412,10 +6416,10 @@
       <c r="B28" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="151"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="50"/>
       <c r="H28" s="49"/>
       <c r="I28" s="50"/>
@@ -6441,10 +6445,10 @@
       <c r="B29" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="151"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="50"/>
       <c r="H29" s="49"/>
       <c r="I29" s="50"/>
@@ -6470,10 +6474,10 @@
       <c r="B30" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="151"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="117"/>
       <c r="G30" s="50"/>
       <c r="H30" s="49"/>
       <c r="I30" s="50"/>
@@ -6501,10 +6505,10 @@
       <c r="B31" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="151"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="117"/>
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
@@ -6530,10 +6534,10 @@
       <c r="B32" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="151"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="117"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
@@ -6559,10 +6563,10 @@
       <c r="B33" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="151"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="50"/>
       <c r="H33" s="49" t="s">
         <v>31</v>
@@ -6592,10 +6596,10 @@
       <c r="B34" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="151"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="49" t="s">
         <v>31</v>
       </c>
@@ -6625,10 +6629,10 @@
       <c r="B35" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="151"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="117"/>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
@@ -6656,10 +6660,10 @@
       <c r="B36" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="151"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
@@ -6687,10 +6691,10 @@
       <c r="B37" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="151"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="117"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
@@ -6718,10 +6722,10 @@
       <c r="B38" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="151"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="50"/>
       <c r="H38" s="49"/>
       <c r="I38" s="50"/>
@@ -6747,12 +6751,12 @@
       <c r="B39" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117" t="s">
+      <c r="C39" s="125"/>
+      <c r="D39" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="151"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="117"/>
       <c r="G39" s="50"/>
       <c r="H39" s="49" t="s">
         <v>31</v>
@@ -6780,10 +6784,10 @@
       <c r="B40" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="151"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="117"/>
       <c r="G40" s="50"/>
       <c r="H40" s="49" t="s">
         <v>31</v>
@@ -6811,10 +6815,10 @@
       <c r="B41" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="151"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="117"/>
       <c r="G41" s="50"/>
       <c r="H41" s="49" t="s">
         <v>31</v>
@@ -6844,10 +6848,10 @@
       <c r="B42" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="152"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="118"/>
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
@@ -6875,16 +6879,16 @@
       <c r="B43" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="131" t="s">
         <v>601</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="131" t="s">
         <v>575</v>
       </c>
-      <c r="E43" s="117" t="s">
+      <c r="E43" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="150"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="50"/>
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
@@ -6910,10 +6914,10 @@
       <c r="B44" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="152"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="118"/>
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -6939,10 +6943,10 @@
       <c r="B45" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="117" t="s">
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="125" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="50"/>
@@ -6974,10 +6978,10 @@
       <c r="B46" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="50"/>
       <c r="H46" s="49" t="s">
         <v>31</v>
@@ -7009,10 +7013,10 @@
       <c r="B47" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="50"/>
       <c r="H47" s="49" t="s">
         <v>31</v>
@@ -7044,10 +7048,10 @@
       <c r="B48" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="50"/>
       <c r="H48" s="49" t="s">
         <v>31</v>
@@ -7077,10 +7081,10 @@
       <c r="B49" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="50"/>
       <c r="H49" s="49" t="s">
         <v>31</v>
@@ -7110,10 +7114,10 @@
       <c r="B50" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="50"/>
       <c r="H50" s="49" t="s">
         <v>31</v>
@@ -7145,10 +7149,10 @@
       <c r="B51" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
       <c r="G51" s="50"/>
       <c r="H51" s="49" t="s">
         <v>31</v>
@@ -7180,10 +7184,10 @@
       <c r="B52" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
       <c r="G52" s="50"/>
       <c r="H52" s="49" t="s">
         <v>31</v>
@@ -7215,10 +7219,10 @@
       <c r="B53" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
       <c r="G53" s="50"/>
       <c r="H53" s="49" t="s">
         <v>31</v>
@@ -7250,10 +7254,10 @@
       <c r="B54" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
       <c r="G54" s="50"/>
       <c r="H54" s="49" t="s">
         <v>31</v>
@@ -7285,10 +7289,10 @@
       <c r="B55" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
@@ -7314,10 +7318,10 @@
       <c r="B56" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
       <c r="I56" s="49" t="s">
@@ -7347,10 +7351,10 @@
       <c r="B57" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="117" t="s">
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="125" t="s">
         <v>253</v>
       </c>
       <c r="G57" s="50"/>
@@ -7378,10 +7382,10 @@
       <c r="B58" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
@@ -7407,10 +7411,10 @@
       <c r="B59" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
@@ -7436,10 +7440,10 @@
       <c r="B60" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
@@ -7467,10 +7471,10 @@
       <c r="B61" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151"/>
       <c r="G61" s="61"/>
       <c r="H61" s="61"/>
       <c r="I61" s="60" t="s">
@@ -7510,23 +7514,23 @@
       <c r="N62" s="36"/>
     </row>
     <row r="63" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="142"/>
-      <c r="M63" s="142"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="143"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="123"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="124"/>
     </row>
     <row r="64" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="67" t="s">
@@ -7535,14 +7539,14 @@
       <c r="B64" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="145" t="s">
+      <c r="D64" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="116"/>
-      <c r="F64" s="153"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="50"/>
       <c r="H64" s="64" t="s">
         <v>31</v>
@@ -7563,7 +7567,7 @@
       <c r="N64" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="O64" s="138" t="s">
+      <c r="O64" s="128" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7574,10 +7578,10 @@
       <c r="B65" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="154"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="120"/>
       <c r="G65" s="64" t="s">
         <v>31</v>
       </c>
@@ -7598,7 +7602,7 @@
       <c r="N65" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="O65" s="138"/>
+      <c r="O65" s="128"/>
     </row>
     <row r="66" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="67" t="s">
@@ -7607,10 +7611,10 @@
       <c r="B66" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="154"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="120"/>
       <c r="G66" s="50"/>
       <c r="H66" s="64" t="s">
         <v>31</v>
@@ -7631,7 +7635,7 @@
       <c r="N66" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="O66" s="138"/>
+      <c r="O66" s="128"/>
     </row>
     <row r="67" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="67" t="s">
@@ -7640,10 +7644,10 @@
       <c r="B67" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="154"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="120"/>
       <c r="G67" s="50"/>
       <c r="H67" s="64"/>
       <c r="I67" s="64"/>
@@ -7658,7 +7662,7 @@
       <c r="N67" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="O67" s="138"/>
+      <c r="O67" s="128"/>
     </row>
     <row r="68" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="67" t="s">
@@ -7667,10 +7671,10 @@
       <c r="B68" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="154"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="120"/>
       <c r="G68" s="50"/>
       <c r="H68" s="64"/>
       <c r="I68" s="64"/>
@@ -7685,7 +7689,7 @@
       <c r="N68" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="O68" s="138"/>
+      <c r="O68" s="128"/>
     </row>
     <row r="69" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="67" t="s">
@@ -7694,10 +7698,10 @@
       <c r="B69" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="145"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="154"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="120"/>
       <c r="G69" s="50"/>
       <c r="H69" s="64" t="s">
         <v>31</v>
@@ -7716,7 +7720,7 @@
       <c r="N69" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="O69" s="138"/>
+      <c r="O69" s="128"/>
     </row>
     <row r="70" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="67" t="s">
@@ -7725,10 +7729,10 @@
       <c r="B70" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="154"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="120"/>
       <c r="G70" s="50"/>
       <c r="H70" s="64" t="s">
         <v>31</v>
@@ -7747,7 +7751,7 @@
       <c r="N70" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="O70" s="138"/>
+      <c r="O70" s="128"/>
     </row>
     <row r="71" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="67" t="s">
@@ -7756,10 +7760,10 @@
       <c r="B71" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="145"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="154"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="120"/>
       <c r="G71" s="50"/>
       <c r="H71" s="64" t="s">
         <v>31</v>
@@ -7778,7 +7782,7 @@
       <c r="N71" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="O71" s="138"/>
+      <c r="O71" s="128"/>
     </row>
     <row r="72" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="67" t="s">
@@ -7787,10 +7791,10 @@
       <c r="B72" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="145"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="154"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="120"/>
       <c r="G72" s="50"/>
       <c r="H72" s="64" t="s">
         <v>31</v>
@@ -7809,7 +7813,7 @@
       <c r="N72" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="O72" s="138"/>
+      <c r="O72" s="128"/>
     </row>
     <row r="73" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="67" t="s">
@@ -7818,10 +7822,10 @@
       <c r="B73" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="145"/>
-      <c r="D73" s="145"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="154"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="120"/>
       <c r="G73" s="50"/>
       <c r="H73" s="64"/>
       <c r="I73" s="50"/>
@@ -7836,7 +7840,7 @@
       <c r="N73" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="O73" s="138"/>
+      <c r="O73" s="128"/>
     </row>
     <row r="74" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="67" t="s">
@@ -7845,10 +7849,10 @@
       <c r="B74" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="145"/>
-      <c r="D74" s="145"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="154"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="120"/>
       <c r="G74" s="50"/>
       <c r="H74" s="64" t="s">
         <v>31</v>
@@ -7867,7 +7871,7 @@
       <c r="N74" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="O74" s="138"/>
+      <c r="O74" s="128"/>
     </row>
     <row r="75" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="67" t="s">
@@ -7876,10 +7880,10 @@
       <c r="B75" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="145"/>
-      <c r="D75" s="145"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="154"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="120"/>
       <c r="G75" s="50"/>
       <c r="H75" s="64" t="s">
         <v>31</v>
@@ -7898,7 +7902,7 @@
       <c r="N75" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O75" s="138"/>
+      <c r="O75" s="128"/>
     </row>
     <row r="76" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="67" t="s">
@@ -7907,10 +7911,10 @@
       <c r="B76" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="154"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="120"/>
       <c r="G76" s="50"/>
       <c r="H76" s="64" t="s">
         <v>31</v>
@@ -7929,7 +7933,7 @@
       <c r="N76" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="O76" s="138"/>
+      <c r="O76" s="128"/>
     </row>
     <row r="77" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="67" t="s">
@@ -7938,10 +7942,10 @@
       <c r="B77" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="154"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="120"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
@@ -7956,7 +7960,7 @@
       <c r="N77" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="O77" s="138"/>
+      <c r="O77" s="128"/>
     </row>
     <row r="78" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
@@ -7965,12 +7969,12 @@
       <c r="B78" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
-      <c r="E78" s="137" t="s">
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="133" t="s">
         <v>296</v>
       </c>
-      <c r="F78" s="154"/>
+      <c r="F78" s="120"/>
       <c r="G78" s="39"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -7985,7 +7989,7 @@
       <c r="N78" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="O78" s="136" t="s">
+      <c r="O78" s="129" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7996,10 +8000,10 @@
       <c r="B79" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="154"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="120"/>
       <c r="G79" s="39"/>
       <c r="H79" s="38" t="s">
         <v>31</v>
@@ -8018,7 +8022,7 @@
       <c r="N79" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="O79" s="136"/>
+      <c r="O79" s="129"/>
     </row>
     <row r="80" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
@@ -8027,10 +8031,10 @@
       <c r="B80" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="C80" s="145"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="154"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="120"/>
       <c r="G80" s="39"/>
       <c r="H80" s="38" t="s">
         <v>31</v>
@@ -8049,7 +8053,7 @@
       <c r="N80" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O80" s="136"/>
+      <c r="O80" s="129"/>
     </row>
     <row r="81" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
@@ -8058,10 +8062,10 @@
       <c r="B81" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="145"/>
-      <c r="D81" s="145"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="154"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="120"/>
       <c r="G81" s="38" t="s">
         <v>31</v>
       </c>
@@ -8080,7 +8084,7 @@
       <c r="N81" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="O81" s="136"/>
+      <c r="O81" s="129"/>
     </row>
     <row r="82" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
@@ -8089,10 +8093,10 @@
       <c r="B82" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C82" s="145"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="154"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="120"/>
       <c r="G82" s="38"/>
       <c r="H82" s="39"/>
       <c r="I82" s="39"/>
@@ -8107,7 +8111,7 @@
       <c r="N82" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="O82" s="136"/>
+      <c r="O82" s="129"/>
     </row>
     <row r="83" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
@@ -8116,10 +8120,10 @@
       <c r="B83" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C83" s="145"/>
-      <c r="D83" s="145"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="154"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="120"/>
       <c r="G83" s="38"/>
       <c r="H83" s="39"/>
       <c r="I83" s="39"/>
@@ -8134,7 +8138,7 @@
       <c r="N83" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="O83" s="136"/>
+      <c r="O83" s="129"/>
     </row>
     <row r="84" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
@@ -8143,10 +8147,10 @@
       <c r="B84" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="154"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="120"/>
       <c r="G84" s="38"/>
       <c r="H84" s="39"/>
       <c r="I84" s="39"/>
@@ -8161,7 +8165,7 @@
       <c r="N84" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O84" s="136"/>
+      <c r="O84" s="129"/>
     </row>
     <row r="85" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
@@ -8170,10 +8174,10 @@
       <c r="B85" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="154"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="120"/>
       <c r="G85" s="38"/>
       <c r="H85" s="39"/>
       <c r="I85" s="39"/>
@@ -8188,7 +8192,7 @@
       <c r="N85" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="O85" s="136"/>
+      <c r="O85" s="129"/>
     </row>
     <row r="86" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
@@ -8197,10 +8201,10 @@
       <c r="B86" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="154"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="133"/>
+      <c r="F86" s="120"/>
       <c r="G86" s="38"/>
       <c r="H86" s="39"/>
       <c r="I86" s="39"/>
@@ -8215,7 +8219,7 @@
       <c r="N86" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O86" s="136"/>
+      <c r="O86" s="129"/>
     </row>
     <row r="87" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
@@ -8224,10 +8228,10 @@
       <c r="B87" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="154"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="120"/>
       <c r="G87" s="38"/>
       <c r="H87" s="39"/>
       <c r="I87" s="39"/>
@@ -8242,7 +8246,7 @@
       <c r="N87" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="O87" s="136"/>
+      <c r="O87" s="129"/>
     </row>
     <row r="88" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
@@ -8251,10 +8255,10 @@
       <c r="B88" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="154"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="133"/>
+      <c r="F88" s="120"/>
       <c r="G88" s="38" t="s">
         <v>31</v>
       </c>
@@ -8273,7 +8277,7 @@
       <c r="N88" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="O88" s="136"/>
+      <c r="O88" s="129"/>
     </row>
     <row r="89" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
@@ -8282,10 +8286,10 @@
       <c r="B89" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C89" s="145"/>
-      <c r="D89" s="145"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="154"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="120"/>
       <c r="G89" s="38"/>
       <c r="H89" s="39"/>
       <c r="I89" s="39"/>
@@ -8300,7 +8304,7 @@
       <c r="N89" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="O89" s="136"/>
+      <c r="O89" s="129"/>
     </row>
     <row r="90" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
@@ -8309,10 +8313,10 @@
       <c r="B90" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C90" s="145"/>
-      <c r="D90" s="145"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="154"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="133"/>
+      <c r="F90" s="120"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
       <c r="I90" s="39"/>
@@ -8327,7 +8331,7 @@
       <c r="N90" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O90" s="136"/>
+      <c r="O90" s="129"/>
     </row>
     <row r="91" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
@@ -8336,10 +8340,10 @@
       <c r="B91" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="154"/>
+      <c r="C91" s="137"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="133"/>
+      <c r="F91" s="120"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="39"/>
@@ -8354,7 +8358,7 @@
       <c r="N91" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O91" s="136"/>
+      <c r="O91" s="129"/>
     </row>
     <row r="92" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
@@ -8363,10 +8367,10 @@
       <c r="B92" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="C92" s="145"/>
-      <c r="D92" s="145"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="155"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="121"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
       <c r="I92" s="39"/>
@@ -8381,7 +8385,7 @@
       <c r="N92" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O92" s="136"/>
+      <c r="O92" s="129"/>
     </row>
     <row r="93" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
@@ -8390,16 +8394,16 @@
       <c r="B93" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C93" s="118" t="s">
+      <c r="C93" s="131" t="s">
         <v>602</v>
       </c>
-      <c r="D93" s="118" t="s">
+      <c r="D93" s="131" t="s">
         <v>603</v>
       </c>
-      <c r="E93" s="137" t="s">
+      <c r="E93" s="133" t="s">
         <v>307</v>
       </c>
-      <c r="F93" s="153"/>
+      <c r="F93" s="119"/>
       <c r="G93" s="39"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -8414,7 +8418,7 @@
       <c r="N93" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="O93" s="136" t="s">
+      <c r="O93" s="129" t="s">
         <v>606</v>
       </c>
     </row>
@@ -8425,10 +8429,10 @@
       <c r="B94" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="118"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="154"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="133"/>
+      <c r="F94" s="120"/>
       <c r="G94" s="39"/>
       <c r="H94" s="38" t="s">
         <v>31</v>
@@ -8447,7 +8451,7 @@
       <c r="N94" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="O94" s="136"/>
+      <c r="O94" s="129"/>
     </row>
     <row r="95" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
@@ -8456,10 +8460,10 @@
       <c r="B95" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="C95" s="118"/>
-      <c r="D95" s="118"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="154"/>
+      <c r="C95" s="131"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="120"/>
       <c r="G95" s="39"/>
       <c r="H95" s="38" t="s">
         <v>31</v>
@@ -8478,7 +8482,7 @@
       <c r="N95" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O95" s="136"/>
+      <c r="O95" s="129"/>
     </row>
     <row r="96" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
@@ -8487,10 +8491,10 @@
       <c r="B96" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="C96" s="118"/>
-      <c r="D96" s="118"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="154"/>
+      <c r="C96" s="131"/>
+      <c r="D96" s="131"/>
+      <c r="E96" s="133"/>
+      <c r="F96" s="120"/>
       <c r="G96" s="38" t="s">
         <v>31</v>
       </c>
@@ -8509,7 +8513,7 @@
       <c r="N96" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="O96" s="136"/>
+      <c r="O96" s="129"/>
     </row>
     <row r="97" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
@@ -8518,10 +8522,10 @@
       <c r="B97" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="C97" s="118"/>
-      <c r="D97" s="118"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="154"/>
+      <c r="C97" s="131"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="120"/>
       <c r="G97" s="38"/>
       <c r="H97" s="39"/>
       <c r="I97" s="39"/>
@@ -8536,7 +8540,7 @@
       <c r="N97" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="O97" s="136"/>
+      <c r="O97" s="129"/>
     </row>
     <row r="98" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
@@ -8545,10 +8549,10 @@
       <c r="B98" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="C98" s="118"/>
-      <c r="D98" s="118"/>
-      <c r="E98" s="137"/>
-      <c r="F98" s="154"/>
+      <c r="C98" s="131"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="120"/>
       <c r="G98" s="38"/>
       <c r="H98" s="39"/>
       <c r="I98" s="39"/>
@@ -8563,7 +8567,7 @@
       <c r="N98" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="O98" s="136"/>
+      <c r="O98" s="129"/>
     </row>
     <row r="99" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
@@ -8572,10 +8576,10 @@
       <c r="B99" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="C99" s="118"/>
-      <c r="D99" s="118"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="154"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="120"/>
       <c r="G99" s="38"/>
       <c r="H99" s="39"/>
       <c r="I99" s="39"/>
@@ -8590,7 +8594,7 @@
       <c r="N99" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="O99" s="136"/>
+      <c r="O99" s="129"/>
     </row>
     <row r="100" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
@@ -8599,10 +8603,10 @@
       <c r="B100" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C100" s="118"/>
-      <c r="D100" s="118"/>
-      <c r="E100" s="137"/>
-      <c r="F100" s="154"/>
+      <c r="C100" s="131"/>
+      <c r="D100" s="131"/>
+      <c r="E100" s="133"/>
+      <c r="F100" s="120"/>
       <c r="G100" s="38"/>
       <c r="H100" s="39"/>
       <c r="I100" s="39"/>
@@ -8617,7 +8621,7 @@
       <c r="N100" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="O100" s="136"/>
+      <c r="O100" s="129"/>
     </row>
     <row r="101" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="37" t="s">
@@ -8626,10 +8630,10 @@
       <c r="B101" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C101" s="118"/>
-      <c r="D101" s="118"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="154"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="133"/>
+      <c r="F101" s="120"/>
       <c r="G101" s="38"/>
       <c r="H101" s="39"/>
       <c r="I101" s="39"/>
@@ -8644,7 +8648,7 @@
       <c r="N101" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="O101" s="136"/>
+      <c r="O101" s="129"/>
     </row>
     <row r="102" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37" t="s">
@@ -8653,10 +8657,10 @@
       <c r="B102" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="C102" s="118"/>
-      <c r="D102" s="118"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="154"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="120"/>
       <c r="G102" s="38"/>
       <c r="H102" s="39"/>
       <c r="I102" s="39"/>
@@ -8671,7 +8675,7 @@
       <c r="N102" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="O102" s="136"/>
+      <c r="O102" s="129"/>
     </row>
     <row r="103" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37" t="s">
@@ -8680,10 +8684,10 @@
       <c r="B103" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="C103" s="118"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="137"/>
-      <c r="F103" s="154"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="133"/>
+      <c r="F103" s="120"/>
       <c r="G103" s="38"/>
       <c r="H103" s="39"/>
       <c r="I103" s="39"/>
@@ -8698,7 +8702,7 @@
       <c r="N103" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="O103" s="136"/>
+      <c r="O103" s="129"/>
     </row>
     <row r="104" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="37" t="s">
@@ -8707,10 +8711,10 @@
       <c r="B104" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="118"/>
-      <c r="D104" s="118"/>
-      <c r="E104" s="137"/>
-      <c r="F104" s="154"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="133"/>
+      <c r="F104" s="120"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
       <c r="I104" s="39"/>
@@ -8725,7 +8729,7 @@
       <c r="N104" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="O104" s="136"/>
+      <c r="O104" s="129"/>
     </row>
     <row r="105" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37" t="s">
@@ -8734,10 +8738,10 @@
       <c r="B105" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="154"/>
+      <c r="C105" s="131"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="133"/>
+      <c r="F105" s="120"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
       <c r="I105" s="39"/>
@@ -8752,7 +8756,7 @@
       <c r="N105" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="O105" s="136"/>
+      <c r="O105" s="129"/>
     </row>
     <row r="106" spans="1:15" s="41" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37" t="s">
@@ -8761,10 +8765,10 @@
       <c r="B106" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="118"/>
-      <c r="D106" s="118"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="154"/>
+      <c r="C106" s="131"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="133"/>
+      <c r="F106" s="120"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="39"/>
@@ -8779,7 +8783,7 @@
       <c r="N106" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="O106" s="136"/>
+      <c r="O106" s="129"/>
     </row>
     <row r="107" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37" t="s">
@@ -8788,10 +8792,10 @@
       <c r="B107" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="118"/>
-      <c r="D107" s="118"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="154"/>
+      <c r="C107" s="131"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="120"/>
       <c r="G107" s="38"/>
       <c r="H107" s="39"/>
       <c r="I107" s="39"/>
@@ -8806,7 +8810,7 @@
       <c r="N107" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O107" s="136"/>
+      <c r="O107" s="129"/>
     </row>
     <row r="108" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37" t="s">
@@ -8815,10 +8819,10 @@
       <c r="B108" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="118"/>
-      <c r="D108" s="118"/>
-      <c r="E108" s="137"/>
-      <c r="F108" s="154"/>
+      <c r="C108" s="131"/>
+      <c r="D108" s="131"/>
+      <c r="E108" s="133"/>
+      <c r="F108" s="120"/>
       <c r="G108" s="38"/>
       <c r="H108" s="39"/>
       <c r="I108" s="39"/>
@@ -8833,7 +8837,7 @@
       <c r="N108" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="O108" s="136"/>
+      <c r="O108" s="129"/>
     </row>
     <row r="109" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="37" t="s">
@@ -8842,10 +8846,10 @@
       <c r="B109" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="118"/>
-      <c r="D109" s="118"/>
-      <c r="E109" s="137"/>
-      <c r="F109" s="154"/>
+      <c r="C109" s="131"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="120"/>
       <c r="G109" s="38"/>
       <c r="H109" s="39"/>
       <c r="I109" s="39"/>
@@ -8860,7 +8864,7 @@
       <c r="N109" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O109" s="136"/>
+      <c r="O109" s="129"/>
     </row>
     <row r="110" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="37" t="s">
@@ -8869,10 +8873,10 @@
       <c r="B110" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="C110" s="118"/>
-      <c r="D110" s="118"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="154"/>
+      <c r="C110" s="131"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="133"/>
+      <c r="F110" s="120"/>
       <c r="G110" s="38"/>
       <c r="H110" s="39"/>
       <c r="I110" s="39"/>
@@ -8887,7 +8891,7 @@
       <c r="N110" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="O110" s="136"/>
+      <c r="O110" s="129"/>
     </row>
     <row r="111" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="37" t="s">
@@ -8896,10 +8900,10 @@
       <c r="B111" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="118"/>
-      <c r="D111" s="118"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="154"/>
+      <c r="C111" s="131"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="133"/>
+      <c r="F111" s="120"/>
       <c r="G111" s="38"/>
       <c r="H111" s="39"/>
       <c r="I111" s="39"/>
@@ -8914,7 +8918,7 @@
       <c r="N111" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="O111" s="136"/>
+      <c r="O111" s="129"/>
     </row>
     <row r="112" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="37" t="s">
@@ -8923,10 +8927,10 @@
       <c r="B112" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="154"/>
+      <c r="C112" s="131"/>
+      <c r="D112" s="131"/>
+      <c r="E112" s="133"/>
+      <c r="F112" s="120"/>
       <c r="G112" s="38"/>
       <c r="H112" s="39"/>
       <c r="I112" s="39"/>
@@ -8941,7 +8945,7 @@
       <c r="N112" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="O112" s="136"/>
+      <c r="O112" s="129"/>
     </row>
     <row r="113" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="37" t="s">
@@ -8950,10 +8954,10 @@
       <c r="B113" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="C113" s="118"/>
-      <c r="D113" s="118"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="154"/>
+      <c r="C113" s="131"/>
+      <c r="D113" s="131"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="120"/>
       <c r="G113" s="38" t="s">
         <v>31</v>
       </c>
@@ -8972,7 +8976,7 @@
       <c r="N113" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="O113" s="136"/>
+      <c r="O113" s="129"/>
     </row>
     <row r="114" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="37" t="s">
@@ -8981,10 +8985,10 @@
       <c r="B114" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="C114" s="118"/>
-      <c r="D114" s="118"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="154"/>
+      <c r="C114" s="131"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="133"/>
+      <c r="F114" s="120"/>
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
       <c r="I114" s="39"/>
@@ -8999,7 +9003,7 @@
       <c r="N114" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="O114" s="136"/>
+      <c r="O114" s="129"/>
     </row>
     <row r="115" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="37" t="s">
@@ -9008,10 +9012,10 @@
       <c r="B115" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="154"/>
+      <c r="C115" s="131"/>
+      <c r="D115" s="131"/>
+      <c r="E115" s="133"/>
+      <c r="F115" s="120"/>
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
       <c r="I115" s="39"/>
@@ -9026,7 +9030,7 @@
       <c r="N115" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O115" s="136"/>
+      <c r="O115" s="129"/>
     </row>
     <row r="116" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37" t="s">
@@ -9035,10 +9039,10 @@
       <c r="B116" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="C116" s="118"/>
-      <c r="D116" s="118"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="154"/>
+      <c r="C116" s="131"/>
+      <c r="D116" s="131"/>
+      <c r="E116" s="133"/>
+      <c r="F116" s="120"/>
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
       <c r="I116" s="39"/>
@@ -9053,7 +9057,7 @@
       <c r="N116" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O116" s="136"/>
+      <c r="O116" s="129"/>
     </row>
     <row r="117" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="37" t="s">
@@ -9062,10 +9066,10 @@
       <c r="B117" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="C117" s="118"/>
-      <c r="D117" s="118"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="154"/>
+      <c r="C117" s="131"/>
+      <c r="D117" s="131"/>
+      <c r="E117" s="133"/>
+      <c r="F117" s="120"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
       <c r="I117" s="39"/>
@@ -9080,7 +9084,7 @@
       <c r="N117" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O117" s="136"/>
+      <c r="O117" s="129"/>
     </row>
     <row r="118" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="37" t="s">
@@ -9089,12 +9093,12 @@
       <c r="B118" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C118" s="118"/>
-      <c r="D118" s="118"/>
-      <c r="E118" s="135" t="s">
+      <c r="C118" s="131"/>
+      <c r="D118" s="131"/>
+      <c r="E118" s="136" t="s">
         <v>570</v>
       </c>
-      <c r="F118" s="154"/>
+      <c r="F118" s="120"/>
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
       <c r="I118" s="39"/>
@@ -9109,7 +9113,7 @@
       <c r="N118" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="O118" s="136" t="s">
+      <c r="O118" s="129" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9120,10 +9124,10 @@
       <c r="B119" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="118"/>
-      <c r="D119" s="118"/>
-      <c r="E119" s="135"/>
-      <c r="F119" s="154"/>
+      <c r="C119" s="131"/>
+      <c r="D119" s="131"/>
+      <c r="E119" s="136"/>
+      <c r="F119" s="120"/>
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
       <c r="I119" s="39"/>
@@ -9138,7 +9142,7 @@
       <c r="N119" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="O119" s="136"/>
+      <c r="O119" s="129"/>
     </row>
     <row r="120" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="37" t="s">
@@ -9147,10 +9151,10 @@
       <c r="B120" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="118"/>
-      <c r="D120" s="118"/>
-      <c r="E120" s="135"/>
-      <c r="F120" s="154"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="136"/>
+      <c r="F120" s="120"/>
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
       <c r="I120" s="39"/>
@@ -9165,7 +9169,7 @@
       <c r="N120" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O120" s="136"/>
+      <c r="O120" s="129"/>
     </row>
     <row r="121" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="37" t="s">
@@ -9174,10 +9178,10 @@
       <c r="B121" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="C121" s="118"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="135"/>
-      <c r="F121" s="154"/>
+      <c r="C121" s="131"/>
+      <c r="D121" s="131"/>
+      <c r="E121" s="136"/>
+      <c r="F121" s="120"/>
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
       <c r="I121" s="39"/>
@@ -9192,7 +9196,7 @@
       <c r="N121" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="O121" s="136"/>
+      <c r="O121" s="129"/>
     </row>
     <row r="122" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="37" t="s">
@@ -9201,10 +9205,10 @@
       <c r="B122" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C122" s="118"/>
-      <c r="D122" s="118"/>
-      <c r="E122" s="135"/>
-      <c r="F122" s="154"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="131"/>
+      <c r="E122" s="136"/>
+      <c r="F122" s="120"/>
       <c r="G122" s="39"/>
       <c r="H122" s="38" t="s">
         <v>31</v>
@@ -9223,7 +9227,7 @@
       <c r="N122" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="O122" s="136"/>
+      <c r="O122" s="129"/>
     </row>
     <row r="123" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="37" t="s">
@@ -9232,10 +9236,10 @@
       <c r="B123" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="118"/>
-      <c r="D123" s="118"/>
-      <c r="E123" s="135"/>
-      <c r="F123" s="154"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="131"/>
+      <c r="E123" s="136"/>
+      <c r="F123" s="120"/>
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
       <c r="I123" s="39"/>
@@ -9250,7 +9254,7 @@
       <c r="N123" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="O123" s="136"/>
+      <c r="O123" s="129"/>
     </row>
     <row r="124" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="37" t="s">
@@ -9259,10 +9263,10 @@
       <c r="B124" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="118"/>
-      <c r="D124" s="118"/>
-      <c r="E124" s="135"/>
-      <c r="F124" s="154"/>
+      <c r="C124" s="131"/>
+      <c r="D124" s="131"/>
+      <c r="E124" s="136"/>
+      <c r="F124" s="120"/>
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
       <c r="I124" s="39"/>
@@ -9277,7 +9281,7 @@
       <c r="N124" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="O124" s="136"/>
+      <c r="O124" s="129"/>
     </row>
     <row r="125" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="37" t="s">
@@ -9286,10 +9290,10 @@
       <c r="B125" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="118"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="135"/>
-      <c r="F125" s="155"/>
+      <c r="C125" s="131"/>
+      <c r="D125" s="131"/>
+      <c r="E125" s="136"/>
+      <c r="F125" s="121"/>
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
       <c r="I125" s="39"/>
@@ -9308,7 +9312,7 @@
       <c r="N125" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="O125" s="136"/>
+      <c r="O125" s="129"/>
     </row>
     <row r="126" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37" t="s">
@@ -9317,10 +9321,10 @@
       <c r="B126" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="C126" s="118"/>
-      <c r="D126" s="118"/>
-      <c r="E126" s="135"/>
-      <c r="F126" s="153"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="131"/>
+      <c r="E126" s="136"/>
+      <c r="F126" s="119"/>
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
       <c r="I126" s="39"/>
@@ -9335,7 +9339,7 @@
       <c r="N126" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O126" s="136"/>
+      <c r="O126" s="129"/>
     </row>
     <row r="127" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="37" t="s">
@@ -9344,10 +9348,10 @@
       <c r="B127" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="C127" s="118"/>
-      <c r="D127" s="118"/>
-      <c r="E127" s="135"/>
-      <c r="F127" s="155"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="136"/>
+      <c r="F127" s="121"/>
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
       <c r="I127" s="39"/>
@@ -9362,7 +9366,7 @@
       <c r="N127" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O127" s="136"/>
+      <c r="O127" s="129"/>
     </row>
     <row r="128" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="37" t="s">
@@ -9371,10 +9375,10 @@
       <c r="B128" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="C128" s="118"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="137" t="s">
+      <c r="C128" s="131"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="136"/>
+      <c r="F128" s="133" t="s">
         <v>573</v>
       </c>
       <c r="G128" s="39"/>
@@ -9395,7 +9399,7 @@
       <c r="N128" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="O128" s="136" t="s">
+      <c r="O128" s="129" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9406,10 +9410,10 @@
       <c r="B129" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="C129" s="118"/>
-      <c r="D129" s="118"/>
-      <c r="E129" s="135"/>
-      <c r="F129" s="140"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="136"/>
+      <c r="F129" s="134"/>
       <c r="G129" s="39"/>
       <c r="H129" s="38" t="s">
         <v>31</v>
@@ -9428,7 +9432,7 @@
       <c r="N129" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O129" s="136"/>
+      <c r="O129" s="129"/>
     </row>
     <row r="130" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="37" t="s">
@@ -9437,10 +9441,10 @@
       <c r="B130" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="C130" s="118"/>
-      <c r="D130" s="118"/>
-      <c r="E130" s="135"/>
-      <c r="F130" s="140"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="131"/>
+      <c r="E130" s="136"/>
+      <c r="F130" s="134"/>
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
       <c r="I130" s="39"/>
@@ -9455,7 +9459,7 @@
       <c r="N130" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="O130" s="136"/>
+      <c r="O130" s="129"/>
     </row>
     <row r="131" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="37" t="s">
@@ -9464,10 +9468,10 @@
       <c r="B131" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="C131" s="118"/>
-      <c r="D131" s="118"/>
-      <c r="E131" s="135"/>
-      <c r="F131" s="140"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="131"/>
+      <c r="E131" s="136"/>
+      <c r="F131" s="134"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38" t="s">
         <v>31</v>
@@ -9486,7 +9490,7 @@
       <c r="N131" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="O131" s="136"/>
+      <c r="O131" s="129"/>
     </row>
     <row r="132" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="37" t="s">
@@ -9495,10 +9499,10 @@
       <c r="B132" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="C132" s="118"/>
-      <c r="D132" s="118"/>
-      <c r="E132" s="135"/>
-      <c r="F132" s="140"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="136"/>
+      <c r="F132" s="134"/>
       <c r="G132" s="39"/>
       <c r="H132" s="66"/>
       <c r="I132" s="38"/>
@@ -9513,7 +9517,7 @@
       <c r="N132" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="O132" s="136"/>
+      <c r="O132" s="129"/>
     </row>
     <row r="133" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="37" t="s">
@@ -9522,10 +9526,10 @@
       <c r="B133" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="C133" s="118"/>
-      <c r="D133" s="118"/>
-      <c r="E133" s="135"/>
-      <c r="F133" s="140"/>
+      <c r="C133" s="131"/>
+      <c r="D133" s="131"/>
+      <c r="E133" s="136"/>
+      <c r="F133" s="134"/>
       <c r="G133" s="38"/>
       <c r="H133" s="39"/>
       <c r="I133" s="39"/>
@@ -9540,7 +9544,7 @@
       <c r="N133" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="O133" s="136"/>
+      <c r="O133" s="129"/>
     </row>
     <row r="134" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="37" t="s">
@@ -9549,10 +9553,10 @@
       <c r="B134" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="118"/>
-      <c r="D134" s="118"/>
-      <c r="E134" s="135"/>
-      <c r="F134" s="140"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="136"/>
+      <c r="F134" s="134"/>
       <c r="G134" s="38"/>
       <c r="H134" s="39"/>
       <c r="I134" s="39"/>
@@ -9567,7 +9571,7 @@
       <c r="N134" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="O134" s="136"/>
+      <c r="O134" s="129"/>
     </row>
     <row r="135" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="37" t="s">
@@ -9576,10 +9580,10 @@
       <c r="B135" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="C135" s="118"/>
-      <c r="D135" s="118"/>
-      <c r="E135" s="135"/>
-      <c r="F135" s="140"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="131"/>
+      <c r="E135" s="136"/>
+      <c r="F135" s="134"/>
       <c r="G135" s="38"/>
       <c r="H135" s="39"/>
       <c r="I135" s="39"/>
@@ -9594,7 +9598,7 @@
       <c r="N135" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O135" s="136"/>
+      <c r="O135" s="129"/>
     </row>
     <row r="136" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="37" t="s">
@@ -9603,10 +9607,10 @@
       <c r="B136" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="C136" s="118"/>
-      <c r="D136" s="118"/>
-      <c r="E136" s="135"/>
-      <c r="F136" s="140"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="131"/>
+      <c r="E136" s="136"/>
+      <c r="F136" s="134"/>
       <c r="G136" s="38"/>
       <c r="H136" s="39"/>
       <c r="I136" s="39"/>
@@ -9621,7 +9625,7 @@
       <c r="N136" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="O136" s="136"/>
+      <c r="O136" s="129"/>
     </row>
     <row r="137" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="37" t="s">
@@ -9630,10 +9634,10 @@
       <c r="B137" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C137" s="118"/>
-      <c r="D137" s="118"/>
-      <c r="E137" s="135"/>
-      <c r="F137" s="140"/>
+      <c r="C137" s="131"/>
+      <c r="D137" s="131"/>
+      <c r="E137" s="136"/>
+      <c r="F137" s="134"/>
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
       <c r="I137" s="39"/>
@@ -9648,7 +9652,7 @@
       <c r="N137" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O137" s="136"/>
+      <c r="O137" s="129"/>
     </row>
     <row r="138" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="37" t="s">
@@ -9657,10 +9661,10 @@
       <c r="B138" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="C138" s="118"/>
-      <c r="D138" s="118"/>
-      <c r="E138" s="135"/>
-      <c r="F138" s="140"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="131"/>
+      <c r="E138" s="136"/>
+      <c r="F138" s="134"/>
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
       <c r="I138" s="39"/>
@@ -9675,7 +9679,7 @@
       <c r="N138" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="O138" s="136"/>
+      <c r="O138" s="129"/>
     </row>
     <row r="139" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="37" t="s">
@@ -9684,10 +9688,10 @@
       <c r="B139" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="C139" s="118"/>
-      <c r="D139" s="118"/>
-      <c r="E139" s="135"/>
-      <c r="F139" s="140"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="136"/>
+      <c r="F139" s="134"/>
       <c r="G139" s="66"/>
       <c r="H139" s="39"/>
       <c r="I139" s="38" t="s">
@@ -9706,7 +9710,7 @@
       <c r="N139" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="O139" s="136"/>
+      <c r="O139" s="129"/>
     </row>
     <row r="140" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="37" t="s">
@@ -9715,10 +9719,10 @@
       <c r="B140" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="C140" s="118"/>
-      <c r="D140" s="118"/>
-      <c r="E140" s="135"/>
-      <c r="F140" s="140"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="131"/>
+      <c r="E140" s="136"/>
+      <c r="F140" s="134"/>
       <c r="G140" s="38"/>
       <c r="H140" s="39"/>
       <c r="I140" s="39"/>
@@ -9733,7 +9737,7 @@
       <c r="N140" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O140" s="136"/>
+      <c r="O140" s="129"/>
     </row>
     <row r="141" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="37" t="s">
@@ -9742,10 +9746,10 @@
       <c r="B141" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="C141" s="118"/>
-      <c r="D141" s="118"/>
-      <c r="E141" s="135"/>
-      <c r="F141" s="140"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="131"/>
+      <c r="E141" s="136"/>
+      <c r="F141" s="134"/>
       <c r="G141" s="39"/>
       <c r="H141" s="39"/>
       <c r="I141" s="39"/>
@@ -9760,7 +9764,7 @@
       <c r="N141" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="O141" s="136"/>
+      <c r="O141" s="129"/>
     </row>
     <row r="142" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="37" t="s">
@@ -9769,10 +9773,10 @@
       <c r="B142" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="C142" s="118"/>
-      <c r="D142" s="118"/>
-      <c r="E142" s="135"/>
-      <c r="F142" s="140"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="131"/>
+      <c r="E142" s="136"/>
+      <c r="F142" s="134"/>
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
       <c r="I142" s="39"/>
@@ -9787,7 +9791,7 @@
       <c r="N142" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O142" s="136"/>
+      <c r="O142" s="129"/>
     </row>
     <row r="143" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="37" t="s">
@@ -9796,10 +9800,10 @@
       <c r="B143" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="C143" s="118"/>
-      <c r="D143" s="118"/>
-      <c r="E143" s="135"/>
-      <c r="F143" s="140"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="131"/>
+      <c r="E143" s="136"/>
+      <c r="F143" s="134"/>
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
       <c r="I143" s="39"/>
@@ -9814,7 +9818,7 @@
       <c r="N143" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O143" s="136"/>
+      <c r="O143" s="129"/>
     </row>
     <row r="144" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="37" t="s">
@@ -9823,16 +9827,16 @@
       <c r="B144" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="C144" s="118" t="s">
+      <c r="C144" s="131" t="s">
         <v>602</v>
       </c>
-      <c r="D144" s="118" t="s">
+      <c r="D144" s="131" t="s">
         <v>604</v>
       </c>
-      <c r="E144" s="135" t="s">
+      <c r="E144" s="136" t="s">
         <v>605</v>
       </c>
-      <c r="F144" s="137" t="s">
+      <c r="F144" s="133" t="s">
         <v>574</v>
       </c>
       <c r="G144" s="39"/>
@@ -9853,7 +9857,7 @@
       <c r="N144" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="O144" s="136" t="s">
+      <c r="O144" s="129" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9864,10 +9868,10 @@
       <c r="B145" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="C145" s="118"/>
-      <c r="D145" s="118"/>
-      <c r="E145" s="135"/>
-      <c r="F145" s="140"/>
+      <c r="C145" s="131"/>
+      <c r="D145" s="131"/>
+      <c r="E145" s="136"/>
+      <c r="F145" s="134"/>
       <c r="G145" s="39"/>
       <c r="H145" s="38" t="s">
         <v>31</v>
@@ -9886,7 +9890,7 @@
       <c r="N145" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="O145" s="136"/>
+      <c r="O145" s="129"/>
     </row>
     <row r="146" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="37" t="s">
@@ -9895,10 +9899,10 @@
       <c r="B146" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="C146" s="118"/>
-      <c r="D146" s="118"/>
-      <c r="E146" s="135"/>
-      <c r="F146" s="140"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="131"/>
+      <c r="E146" s="136"/>
+      <c r="F146" s="134"/>
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
       <c r="I146" s="39"/>
@@ -9913,7 +9917,7 @@
       <c r="N146" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="O146" s="136"/>
+      <c r="O146" s="129"/>
     </row>
     <row r="147" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="37" t="s">
@@ -9922,10 +9926,10 @@
       <c r="B147" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="C147" s="118"/>
-      <c r="D147" s="118"/>
-      <c r="E147" s="135"/>
-      <c r="F147" s="140"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="131"/>
+      <c r="E147" s="136"/>
+      <c r="F147" s="134"/>
       <c r="G147" s="38"/>
       <c r="H147" s="38" t="s">
         <v>31</v>
@@ -9944,7 +9948,7 @@
       <c r="N147" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="O147" s="136"/>
+      <c r="O147" s="129"/>
     </row>
     <row r="148" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="37" t="s">
@@ -9953,10 +9957,10 @@
       <c r="B148" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="C148" s="118"/>
-      <c r="D148" s="118"/>
-      <c r="E148" s="135"/>
-      <c r="F148" s="140"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="131"/>
+      <c r="E148" s="136"/>
+      <c r="F148" s="134"/>
       <c r="G148" s="39"/>
       <c r="H148" s="66"/>
       <c r="I148" s="38"/>
@@ -9971,7 +9975,7 @@
       <c r="N148" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="O148" s="136"/>
+      <c r="O148" s="129"/>
     </row>
     <row r="149" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="37" t="s">
@@ -9980,10 +9984,10 @@
       <c r="B149" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="C149" s="118"/>
-      <c r="D149" s="118"/>
-      <c r="E149" s="135"/>
-      <c r="F149" s="140"/>
+      <c r="C149" s="131"/>
+      <c r="D149" s="131"/>
+      <c r="E149" s="136"/>
+      <c r="F149" s="134"/>
       <c r="G149" s="38"/>
       <c r="H149" s="39"/>
       <c r="I149" s="39"/>
@@ -9998,7 +10002,7 @@
       <c r="N149" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="O149" s="136"/>
+      <c r="O149" s="129"/>
     </row>
     <row r="150" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="37" t="s">
@@ -10007,10 +10011,10 @@
       <c r="B150" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="C150" s="118"/>
-      <c r="D150" s="118"/>
-      <c r="E150" s="135"/>
-      <c r="F150" s="140"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="131"/>
+      <c r="E150" s="136"/>
+      <c r="F150" s="134"/>
       <c r="G150" s="38"/>
       <c r="H150" s="39"/>
       <c r="I150" s="39"/>
@@ -10025,7 +10029,7 @@
       <c r="N150" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="O150" s="136"/>
+      <c r="O150" s="129"/>
     </row>
     <row r="151" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="37" t="s">
@@ -10034,10 +10038,10 @@
       <c r="B151" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="C151" s="118"/>
-      <c r="D151" s="118"/>
-      <c r="E151" s="135"/>
-      <c r="F151" s="140"/>
+      <c r="C151" s="131"/>
+      <c r="D151" s="131"/>
+      <c r="E151" s="136"/>
+      <c r="F151" s="134"/>
       <c r="G151" s="38"/>
       <c r="H151" s="39"/>
       <c r="I151" s="39"/>
@@ -10052,7 +10056,7 @@
       <c r="N151" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="O151" s="136"/>
+      <c r="O151" s="129"/>
     </row>
     <row r="152" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="37" t="s">
@@ -10061,10 +10065,10 @@
       <c r="B152" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="C152" s="118"/>
-      <c r="D152" s="118"/>
-      <c r="E152" s="135"/>
-      <c r="F152" s="140"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="131"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="134"/>
       <c r="G152" s="38"/>
       <c r="H152" s="39"/>
       <c r="I152" s="39"/>
@@ -10079,7 +10083,7 @@
       <c r="N152" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="O152" s="136"/>
+      <c r="O152" s="129"/>
     </row>
     <row r="153" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="37" t="s">
@@ -10088,10 +10092,10 @@
       <c r="B153" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C153" s="118"/>
-      <c r="D153" s="118"/>
-      <c r="E153" s="135"/>
-      <c r="F153" s="140"/>
+      <c r="C153" s="131"/>
+      <c r="D153" s="131"/>
+      <c r="E153" s="136"/>
+      <c r="F153" s="134"/>
       <c r="G153" s="38"/>
       <c r="H153" s="39"/>
       <c r="I153" s="39"/>
@@ -10106,7 +10110,7 @@
       <c r="N153" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="O153" s="136"/>
+      <c r="O153" s="129"/>
     </row>
     <row r="154" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="37" t="s">
@@ -10115,10 +10119,10 @@
       <c r="B154" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="118"/>
-      <c r="D154" s="118"/>
-      <c r="E154" s="135"/>
-      <c r="F154" s="140"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="131"/>
+      <c r="E154" s="136"/>
+      <c r="F154" s="134"/>
       <c r="G154" s="38"/>
       <c r="H154" s="39"/>
       <c r="I154" s="39"/>
@@ -10133,7 +10137,7 @@
       <c r="N154" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="O154" s="136"/>
+      <c r="O154" s="129"/>
     </row>
     <row r="155" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="37" t="s">
@@ -10142,10 +10146,10 @@
       <c r="B155" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="118"/>
-      <c r="D155" s="118"/>
-      <c r="E155" s="135"/>
-      <c r="F155" s="140"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="131"/>
+      <c r="E155" s="136"/>
+      <c r="F155" s="134"/>
       <c r="G155" s="38"/>
       <c r="H155" s="39"/>
       <c r="I155" s="39"/>
@@ -10160,7 +10164,7 @@
       <c r="N155" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="O155" s="136"/>
+      <c r="O155" s="129"/>
     </row>
     <row r="156" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="37" t="s">
@@ -10169,10 +10173,10 @@
       <c r="B156" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="C156" s="118"/>
-      <c r="D156" s="118"/>
-      <c r="E156" s="135"/>
-      <c r="F156" s="140"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="131"/>
+      <c r="E156" s="136"/>
+      <c r="F156" s="134"/>
       <c r="G156" s="38"/>
       <c r="H156" s="39"/>
       <c r="I156" s="39"/>
@@ -10187,7 +10191,7 @@
       <c r="N156" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="O156" s="136"/>
+      <c r="O156" s="129"/>
     </row>
     <row r="157" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
@@ -10196,10 +10200,10 @@
       <c r="B157" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C157" s="118"/>
-      <c r="D157" s="118"/>
-      <c r="E157" s="135"/>
-      <c r="F157" s="140"/>
+      <c r="C157" s="131"/>
+      <c r="D157" s="131"/>
+      <c r="E157" s="136"/>
+      <c r="F157" s="134"/>
       <c r="G157" s="38"/>
       <c r="H157" s="39"/>
       <c r="I157" s="39"/>
@@ -10214,7 +10218,7 @@
       <c r="N157" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="O157" s="136"/>
+      <c r="O157" s="129"/>
     </row>
     <row r="158" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
@@ -10223,10 +10227,10 @@
       <c r="B158" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C158" s="118"/>
-      <c r="D158" s="118"/>
-      <c r="E158" s="135"/>
-      <c r="F158" s="140"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="131"/>
+      <c r="E158" s="136"/>
+      <c r="F158" s="134"/>
       <c r="G158" s="38"/>
       <c r="H158" s="39"/>
       <c r="I158" s="39"/>
@@ -10241,7 +10245,7 @@
       <c r="N158" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="O158" s="136"/>
+      <c r="O158" s="129"/>
     </row>
     <row r="159" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="37" t="s">
@@ -10250,10 +10254,10 @@
       <c r="B159" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="C159" s="118"/>
-      <c r="D159" s="118"/>
-      <c r="E159" s="135"/>
-      <c r="F159" s="140"/>
+      <c r="C159" s="131"/>
+      <c r="D159" s="131"/>
+      <c r="E159" s="136"/>
+      <c r="F159" s="134"/>
       <c r="G159" s="38"/>
       <c r="H159" s="39"/>
       <c r="I159" s="39"/>
@@ -10268,7 +10272,7 @@
       <c r="N159" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O159" s="136"/>
+      <c r="O159" s="129"/>
     </row>
     <row r="160" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="37" t="s">
@@ -10277,10 +10281,10 @@
       <c r="B160" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="C160" s="118"/>
-      <c r="D160" s="118"/>
-      <c r="E160" s="135"/>
-      <c r="F160" s="140"/>
+      <c r="C160" s="131"/>
+      <c r="D160" s="131"/>
+      <c r="E160" s="136"/>
+      <c r="F160" s="134"/>
       <c r="G160" s="38"/>
       <c r="H160" s="39"/>
       <c r="I160" s="39"/>
@@ -10295,7 +10299,7 @@
       <c r="N160" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="O160" s="136"/>
+      <c r="O160" s="129"/>
     </row>
     <row r="161" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="37" t="s">
@@ -10304,10 +10308,10 @@
       <c r="B161" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="C161" s="118"/>
-      <c r="D161" s="118"/>
-      <c r="E161" s="135"/>
-      <c r="F161" s="140"/>
+      <c r="C161" s="131"/>
+      <c r="D161" s="131"/>
+      <c r="E161" s="136"/>
+      <c r="F161" s="134"/>
       <c r="G161" s="38"/>
       <c r="H161" s="39"/>
       <c r="I161" s="39"/>
@@ -10322,7 +10326,7 @@
       <c r="N161" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O161" s="136"/>
+      <c r="O161" s="129"/>
     </row>
     <row r="162" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="37" t="s">
@@ -10331,10 +10335,10 @@
       <c r="B162" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="C162" s="118"/>
-      <c r="D162" s="118"/>
-      <c r="E162" s="135"/>
-      <c r="F162" s="140"/>
+      <c r="C162" s="131"/>
+      <c r="D162" s="131"/>
+      <c r="E162" s="136"/>
+      <c r="F162" s="134"/>
       <c r="G162" s="38"/>
       <c r="H162" s="39"/>
       <c r="I162" s="39"/>
@@ -10349,7 +10353,7 @@
       <c r="N162" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="O162" s="136"/>
+      <c r="O162" s="129"/>
     </row>
     <row r="163" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="37" t="s">
@@ -10358,10 +10362,10 @@
       <c r="B163" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="C163" s="118"/>
-      <c r="D163" s="118"/>
-      <c r="E163" s="135"/>
-      <c r="F163" s="140"/>
+      <c r="C163" s="131"/>
+      <c r="D163" s="131"/>
+      <c r="E163" s="136"/>
+      <c r="F163" s="134"/>
       <c r="G163" s="38"/>
       <c r="H163" s="39"/>
       <c r="I163" s="39"/>
@@ -10376,7 +10380,7 @@
       <c r="N163" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="O163" s="136"/>
+      <c r="O163" s="129"/>
     </row>
     <row r="164" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="37" t="s">
@@ -10385,10 +10389,10 @@
       <c r="B164" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="C164" s="118"/>
-      <c r="D164" s="118"/>
-      <c r="E164" s="135"/>
-      <c r="F164" s="140"/>
+      <c r="C164" s="131"/>
+      <c r="D164" s="131"/>
+      <c r="E164" s="136"/>
+      <c r="F164" s="134"/>
       <c r="G164" s="38"/>
       <c r="H164" s="39"/>
       <c r="I164" s="38" t="s">
@@ -10407,7 +10411,7 @@
       <c r="N164" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="O164" s="136"/>
+      <c r="O164" s="129"/>
     </row>
     <row r="165" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="37" t="s">
@@ -10416,10 +10420,10 @@
       <c r="B165" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="C165" s="118"/>
-      <c r="D165" s="118"/>
-      <c r="E165" s="135"/>
-      <c r="F165" s="140"/>
+      <c r="C165" s="131"/>
+      <c r="D165" s="131"/>
+      <c r="E165" s="136"/>
+      <c r="F165" s="134"/>
       <c r="G165" s="66"/>
       <c r="H165" s="39"/>
       <c r="I165" s="39"/>
@@ -10434,7 +10438,7 @@
       <c r="N165" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O165" s="136"/>
+      <c r="O165" s="129"/>
     </row>
     <row r="166" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="37" t="s">
@@ -10443,10 +10447,10 @@
       <c r="B166" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="C166" s="118"/>
-      <c r="D166" s="118"/>
-      <c r="E166" s="135"/>
-      <c r="F166" s="140"/>
+      <c r="C166" s="131"/>
+      <c r="D166" s="131"/>
+      <c r="E166" s="136"/>
+      <c r="F166" s="134"/>
       <c r="G166" s="39"/>
       <c r="H166" s="39"/>
       <c r="I166" s="39"/>
@@ -10461,7 +10465,7 @@
       <c r="N166" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="O166" s="136"/>
+      <c r="O166" s="129"/>
     </row>
     <row r="167" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="37" t="s">
@@ -10470,10 +10474,10 @@
       <c r="B167" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C167" s="118"/>
-      <c r="D167" s="118"/>
-      <c r="E167" s="135"/>
-      <c r="F167" s="140"/>
+      <c r="C167" s="131"/>
+      <c r="D167" s="131"/>
+      <c r="E167" s="136"/>
+      <c r="F167" s="134"/>
       <c r="G167" s="39"/>
       <c r="H167" s="39"/>
       <c r="I167" s="39"/>
@@ -10488,7 +10492,7 @@
       <c r="N167" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O167" s="136"/>
+      <c r="O167" s="129"/>
     </row>
     <row r="168" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="37" t="s">
@@ -10497,10 +10501,10 @@
       <c r="B168" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C168" s="118"/>
-      <c r="D168" s="118"/>
-      <c r="E168" s="135"/>
-      <c r="F168" s="140"/>
+      <c r="C168" s="131"/>
+      <c r="D168" s="131"/>
+      <c r="E168" s="136"/>
+      <c r="F168" s="134"/>
       <c r="G168" s="39"/>
       <c r="H168" s="39"/>
       <c r="I168" s="39"/>
@@ -10515,7 +10519,7 @@
       <c r="N168" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O168" s="136"/>
+      <c r="O168" s="129"/>
     </row>
     <row r="169" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="37" t="s">
@@ -10524,12 +10528,12 @@
       <c r="B169" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="C169" s="118"/>
-      <c r="D169" s="118"/>
-      <c r="E169" s="118" t="s">
+      <c r="C169" s="131"/>
+      <c r="D169" s="131"/>
+      <c r="E169" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="F169" s="140"/>
+      <c r="F169" s="134"/>
       <c r="G169" s="39"/>
       <c r="H169" s="39"/>
       <c r="I169" s="39"/>
@@ -10544,7 +10548,7 @@
       <c r="N169" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="O169" s="136" t="s">
+      <c r="O169" s="129" t="s">
         <v>546</v>
       </c>
     </row>
@@ -10555,10 +10559,10 @@
       <c r="B170" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="C170" s="118"/>
-      <c r="D170" s="118"/>
-      <c r="E170" s="118"/>
-      <c r="F170" s="140"/>
+      <c r="C170" s="131"/>
+      <c r="D170" s="131"/>
+      <c r="E170" s="131"/>
+      <c r="F170" s="134"/>
       <c r="G170" s="39"/>
       <c r="H170" s="39"/>
       <c r="I170" s="39"/>
@@ -10573,7 +10577,7 @@
       <c r="N170" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="O170" s="136"/>
+      <c r="O170" s="129"/>
     </row>
     <row r="171" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="37" t="s">
@@ -10582,10 +10586,10 @@
       <c r="B171" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C171" s="118"/>
-      <c r="D171" s="118"/>
-      <c r="E171" s="118"/>
-      <c r="F171" s="140"/>
+      <c r="C171" s="131"/>
+      <c r="D171" s="131"/>
+      <c r="E171" s="131"/>
+      <c r="F171" s="134"/>
       <c r="G171" s="39"/>
       <c r="H171" s="39"/>
       <c r="I171" s="39"/>
@@ -10600,7 +10604,7 @@
       <c r="N171" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O171" s="136"/>
+      <c r="O171" s="129"/>
     </row>
     <row r="172" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="37" t="s">
@@ -10609,10 +10613,10 @@
       <c r="B172" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="C172" s="118"/>
-      <c r="D172" s="118"/>
-      <c r="E172" s="118"/>
-      <c r="F172" s="140"/>
+      <c r="C172" s="131"/>
+      <c r="D172" s="131"/>
+      <c r="E172" s="131"/>
+      <c r="F172" s="134"/>
       <c r="G172" s="39"/>
       <c r="H172" s="39"/>
       <c r="I172" s="39"/>
@@ -10627,7 +10631,7 @@
       <c r="N172" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O172" s="136"/>
+      <c r="O172" s="129"/>
     </row>
     <row r="173" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="37" t="s">
@@ -10636,10 +10640,10 @@
       <c r="B173" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="C173" s="118"/>
-      <c r="D173" s="118"/>
-      <c r="E173" s="118"/>
-      <c r="F173" s="140"/>
+      <c r="C173" s="131"/>
+      <c r="D173" s="131"/>
+      <c r="E173" s="131"/>
+      <c r="F173" s="134"/>
       <c r="G173" s="39"/>
       <c r="H173" s="39"/>
       <c r="I173" s="38" t="s">
@@ -10658,7 +10662,7 @@
       <c r="N173" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O173" s="136"/>
+      <c r="O173" s="129"/>
     </row>
     <row r="174" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="37" t="s">
@@ -10667,10 +10671,10 @@
       <c r="B174" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="C174" s="118"/>
-      <c r="D174" s="118"/>
-      <c r="E174" s="118"/>
-      <c r="F174" s="140"/>
+      <c r="C174" s="131"/>
+      <c r="D174" s="131"/>
+      <c r="E174" s="131"/>
+      <c r="F174" s="134"/>
       <c r="G174" s="39"/>
       <c r="H174" s="39"/>
       <c r="I174" s="39"/>
@@ -10685,7 +10689,7 @@
       <c r="N174" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O174" s="136"/>
+      <c r="O174" s="129"/>
     </row>
     <row r="175" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="37" t="s">
@@ -10694,12 +10698,12 @@
       <c r="B175" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="C175" s="118"/>
-      <c r="D175" s="118"/>
-      <c r="E175" s="118" t="s">
+      <c r="C175" s="131"/>
+      <c r="D175" s="131"/>
+      <c r="E175" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="F175" s="140"/>
+      <c r="F175" s="134"/>
       <c r="G175" s="39"/>
       <c r="H175" s="39"/>
       <c r="I175" s="39"/>
@@ -10714,7 +10718,7 @@
       <c r="N175" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="O175" s="136"/>
+      <c r="O175" s="129"/>
     </row>
     <row r="176" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="37" t="s">
@@ -10723,10 +10727,10 @@
       <c r="B176" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="C176" s="118"/>
-      <c r="D176" s="118"/>
-      <c r="E176" s="118"/>
-      <c r="F176" s="140"/>
+      <c r="C176" s="131"/>
+      <c r="D176" s="131"/>
+      <c r="E176" s="131"/>
+      <c r="F176" s="134"/>
       <c r="G176" s="39"/>
       <c r="H176" s="39"/>
       <c r="I176" s="39"/>
@@ -10741,7 +10745,7 @@
       <c r="N176" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="O176" s="136"/>
+      <c r="O176" s="129"/>
     </row>
     <row r="177" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="37" t="s">
@@ -10750,10 +10754,10 @@
       <c r="B177" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="C177" s="118"/>
-      <c r="D177" s="118"/>
-      <c r="E177" s="118"/>
-      <c r="F177" s="140"/>
+      <c r="C177" s="131"/>
+      <c r="D177" s="131"/>
+      <c r="E177" s="131"/>
+      <c r="F177" s="134"/>
       <c r="G177" s="39"/>
       <c r="H177" s="39"/>
       <c r="I177" s="39"/>
@@ -10768,7 +10772,7 @@
       <c r="N177" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O177" s="136"/>
+      <c r="O177" s="129"/>
     </row>
     <row r="178" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="37" t="s">
@@ -10777,10 +10781,10 @@
       <c r="B178" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="C178" s="118"/>
-      <c r="D178" s="118"/>
-      <c r="E178" s="118"/>
-      <c r="F178" s="140"/>
+      <c r="C178" s="131"/>
+      <c r="D178" s="131"/>
+      <c r="E178" s="131"/>
+      <c r="F178" s="134"/>
       <c r="G178" s="39"/>
       <c r="H178" s="39"/>
       <c r="I178" s="39"/>
@@ -10795,7 +10799,7 @@
       <c r="N178" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O178" s="136"/>
+      <c r="O178" s="129"/>
     </row>
     <row r="179" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="37" t="s">
@@ -10804,10 +10808,10 @@
       <c r="B179" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="C179" s="118"/>
-      <c r="D179" s="118"/>
-      <c r="E179" s="118"/>
-      <c r="F179" s="140"/>
+      <c r="C179" s="131"/>
+      <c r="D179" s="131"/>
+      <c r="E179" s="131"/>
+      <c r="F179" s="134"/>
       <c r="G179" s="39"/>
       <c r="H179" s="39"/>
       <c r="I179" s="38" t="s">
@@ -10826,7 +10830,7 @@
       <c r="N179" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O179" s="136"/>
+      <c r="O179" s="129"/>
     </row>
     <row r="180" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
@@ -10835,10 +10839,10 @@
       <c r="B180" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="C180" s="119"/>
-      <c r="D180" s="119"/>
-      <c r="E180" s="119"/>
-      <c r="F180" s="144"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="132"/>
+      <c r="E180" s="132"/>
+      <c r="F180" s="135"/>
       <c r="G180" s="45"/>
       <c r="H180" s="45"/>
       <c r="I180" s="45"/>
@@ -10853,7 +10857,7 @@
       <c r="N180" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="O180" s="139"/>
+      <c r="O180" s="130"/>
       <c r="P180" s="42"/>
     </row>
     <row r="181" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10873,23 +10877,23 @@
       <c r="N181" s="36"/>
     </row>
     <row r="182" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="141" t="s">
+      <c r="A182" s="153" t="s">
         <v>336</v>
       </c>
-      <c r="B182" s="142"/>
-      <c r="C182" s="142"/>
-      <c r="D182" s="142"/>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="142"/>
-      <c r="J182" s="142"/>
-      <c r="K182" s="142"/>
-      <c r="L182" s="142"/>
-      <c r="M182" s="142"/>
-      <c r="N182" s="142"/>
-      <c r="O182" s="143"/>
+      <c r="B182" s="123"/>
+      <c r="C182" s="123"/>
+      <c r="D182" s="123"/>
+      <c r="E182" s="123"/>
+      <c r="F182" s="123"/>
+      <c r="G182" s="123"/>
+      <c r="H182" s="123"/>
+      <c r="I182" s="123"/>
+      <c r="J182" s="123"/>
+      <c r="K182" s="123"/>
+      <c r="L182" s="123"/>
+      <c r="M182" s="123"/>
+      <c r="N182" s="123"/>
+      <c r="O182" s="124"/>
     </row>
     <row r="183" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="72" t="s">
@@ -10898,14 +10902,14 @@
       <c r="B183" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="C183" s="122" t="s">
+      <c r="C183" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D183" s="122" t="s">
+      <c r="D183" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="E183" s="120"/>
-      <c r="F183" s="120"/>
+      <c r="E183" s="150"/>
+      <c r="F183" s="150"/>
       <c r="G183" s="69"/>
       <c r="H183" s="68" t="s">
         <v>31</v>
@@ -10922,7 +10926,7 @@
       <c r="N183" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="O183" s="138" t="s">
+      <c r="O183" s="128" t="s">
         <v>340</v>
       </c>
     </row>
@@ -10933,10 +10937,10 @@
       <c r="B184" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="C184" s="114"/>
-      <c r="D184" s="114"/>
-      <c r="E184" s="114"/>
-      <c r="F184" s="114"/>
+      <c r="C184" s="127"/>
+      <c r="D184" s="127"/>
+      <c r="E184" s="127"/>
+      <c r="F184" s="127"/>
       <c r="G184" s="69"/>
       <c r="H184" s="68" t="s">
         <v>31</v>
@@ -10955,7 +10959,7 @@
       <c r="N184" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="O184" s="138"/>
+      <c r="O184" s="128"/>
     </row>
     <row r="185" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="72" t="s">
@@ -10964,10 +10968,10 @@
       <c r="B185" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="C185" s="114"/>
-      <c r="D185" s="114"/>
-      <c r="E185" s="114"/>
-      <c r="F185" s="114"/>
+      <c r="C185" s="127"/>
+      <c r="D185" s="127"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
       <c r="G185" s="68" t="s">
         <v>31</v>
       </c>
@@ -10988,7 +10992,7 @@
       <c r="N185" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="O185" s="138"/>
+      <c r="O185" s="128"/>
     </row>
     <row r="186" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="72" t="s">
@@ -10997,10 +11001,10 @@
       <c r="B186" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="C186" s="114"/>
-      <c r="D186" s="114"/>
-      <c r="E186" s="114"/>
-      <c r="F186" s="114"/>
+      <c r="C186" s="127"/>
+      <c r="D186" s="127"/>
+      <c r="E186" s="127"/>
+      <c r="F186" s="127"/>
       <c r="G186" s="68" t="s">
         <v>31</v>
       </c>
@@ -11019,7 +11023,7 @@
       <c r="N186" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="O186" s="138"/>
+      <c r="O186" s="128"/>
     </row>
     <row r="187" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="72" t="s">
@@ -11028,10 +11032,10 @@
       <c r="B187" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="C187" s="114"/>
-      <c r="D187" s="114"/>
-      <c r="E187" s="114"/>
-      <c r="F187" s="114"/>
+      <c r="C187" s="127"/>
+      <c r="D187" s="127"/>
+      <c r="E187" s="127"/>
+      <c r="F187" s="127"/>
       <c r="G187" s="68" t="s">
         <v>31</v>
       </c>
@@ -11050,7 +11054,7 @@
       <c r="N187" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="O187" s="138"/>
+      <c r="O187" s="128"/>
     </row>
     <row r="188" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="72" t="s">
@@ -11059,10 +11063,10 @@
       <c r="B188" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="C188" s="114"/>
-      <c r="D188" s="114"/>
-      <c r="E188" s="114"/>
-      <c r="F188" s="114"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="127"/>
+      <c r="E188" s="127"/>
+      <c r="F188" s="127"/>
       <c r="G188" s="68" t="s">
         <v>31</v>
       </c>
@@ -11083,7 +11087,7 @@
       <c r="N188" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="O188" s="138"/>
+      <c r="O188" s="128"/>
     </row>
     <row r="189" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="72" t="s">
@@ -11092,10 +11096,10 @@
       <c r="B189" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="C189" s="114"/>
-      <c r="D189" s="114"/>
-      <c r="E189" s="114"/>
-      <c r="F189" s="114"/>
+      <c r="C189" s="127"/>
+      <c r="D189" s="127"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
       <c r="G189" s="69"/>
       <c r="H189" s="68" t="s">
         <v>31</v>
@@ -11114,7 +11118,7 @@
       <c r="N189" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="O189" s="138"/>
+      <c r="O189" s="128"/>
     </row>
     <row r="190" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="72" t="s">
@@ -11123,10 +11127,10 @@
       <c r="B190" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="114"/>
-      <c r="D190" s="114"/>
-      <c r="E190" s="114"/>
-      <c r="F190" s="114"/>
+      <c r="C190" s="127"/>
+      <c r="D190" s="127"/>
+      <c r="E190" s="127"/>
+      <c r="F190" s="127"/>
       <c r="G190" s="69"/>
       <c r="H190" s="68"/>
       <c r="I190" s="69"/>
@@ -11141,7 +11145,7 @@
       <c r="N190" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="O190" s="138"/>
+      <c r="O190" s="128"/>
     </row>
     <row r="191" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="72" t="s">
@@ -11150,10 +11154,10 @@
       <c r="B191" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="114"/>
-      <c r="D191" s="114"/>
-      <c r="E191" s="114"/>
-      <c r="F191" s="114"/>
+      <c r="C191" s="127"/>
+      <c r="D191" s="127"/>
+      <c r="E191" s="127"/>
+      <c r="F191" s="127"/>
       <c r="G191" s="68"/>
       <c r="H191" s="69"/>
       <c r="I191" s="69"/>
@@ -11168,7 +11172,7 @@
       <c r="N191" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="O191" s="138"/>
+      <c r="O191" s="128"/>
     </row>
     <row r="192" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="73">
@@ -11177,10 +11181,10 @@
       <c r="B192" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="114"/>
-      <c r="D192" s="114"/>
-      <c r="E192" s="114"/>
-      <c r="F192" s="114"/>
+      <c r="C192" s="127"/>
+      <c r="D192" s="127"/>
+      <c r="E192" s="127"/>
+      <c r="F192" s="127"/>
       <c r="G192" s="68" t="s">
         <v>31</v>
       </c>
@@ -11199,7 +11203,7 @@
       <c r="N192" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="O192" s="138"/>
+      <c r="O192" s="128"/>
     </row>
     <row r="193" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="73">
@@ -11208,12 +11212,12 @@
       <c r="B193" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="114"/>
-      <c r="D193" s="114"/>
-      <c r="E193" s="122" t="s">
+      <c r="C193" s="127"/>
+      <c r="D193" s="127"/>
+      <c r="E193" s="152" t="s">
         <v>360</v>
       </c>
-      <c r="F193" s="114"/>
+      <c r="F193" s="127"/>
       <c r="G193" s="68" t="s">
         <v>31</v>
       </c>
@@ -11232,7 +11236,7 @@
       <c r="N193" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="O193" s="138"/>
+      <c r="O193" s="128"/>
     </row>
     <row r="194" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="73">
@@ -11241,10 +11245,10 @@
       <c r="B194" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="C194" s="114"/>
-      <c r="D194" s="114"/>
-      <c r="E194" s="114"/>
-      <c r="F194" s="114"/>
+      <c r="C194" s="127"/>
+      <c r="D194" s="127"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
       <c r="G194" s="68"/>
       <c r="H194" s="69"/>
       <c r="I194" s="69"/>
@@ -11261,7 +11265,7 @@
       <c r="N194" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="O194" s="138"/>
+      <c r="O194" s="128"/>
     </row>
     <row r="195" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="73">
@@ -11270,10 +11274,10 @@
       <c r="B195" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="C195" s="114"/>
-      <c r="D195" s="114"/>
-      <c r="E195" s="114"/>
-      <c r="F195" s="114"/>
+      <c r="C195" s="127"/>
+      <c r="D195" s="127"/>
+      <c r="E195" s="127"/>
+      <c r="F195" s="127"/>
       <c r="G195" s="68"/>
       <c r="H195" s="69"/>
       <c r="I195" s="69"/>
@@ -11288,7 +11292,7 @@
       <c r="N195" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="O195" s="138"/>
+      <c r="O195" s="128"/>
     </row>
     <row r="196" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="73">
@@ -11297,10 +11301,10 @@
       <c r="B196" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="C196" s="114"/>
-      <c r="D196" s="114"/>
-      <c r="E196" s="114"/>
-      <c r="F196" s="114"/>
+      <c r="C196" s="127"/>
+      <c r="D196" s="127"/>
+      <c r="E196" s="127"/>
+      <c r="F196" s="127"/>
       <c r="G196" s="68"/>
       <c r="H196" s="69"/>
       <c r="I196" s="69"/>
@@ -11315,7 +11319,7 @@
       <c r="N196" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="O196" s="138"/>
+      <c r="O196" s="128"/>
     </row>
     <row r="197" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="73">
@@ -11324,10 +11328,10 @@
       <c r="B197" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="C197" s="114"/>
-      <c r="D197" s="114"/>
-      <c r="E197" s="114"/>
-      <c r="F197" s="114"/>
+      <c r="C197" s="127"/>
+      <c r="D197" s="127"/>
+      <c r="E197" s="127"/>
+      <c r="F197" s="127"/>
       <c r="G197" s="68"/>
       <c r="H197" s="69"/>
       <c r="I197" s="69"/>
@@ -11342,7 +11346,7 @@
       <c r="N197" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="O197" s="138"/>
+      <c r="O197" s="128"/>
     </row>
     <row r="198" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="73">
@@ -11351,10 +11355,10 @@
       <c r="B198" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="C198" s="114"/>
-      <c r="D198" s="114"/>
-      <c r="E198" s="114"/>
-      <c r="F198" s="114"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="127"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
       <c r="G198" s="69"/>
       <c r="H198" s="68" t="s">
         <v>31</v>
@@ -11371,7 +11375,7 @@
       <c r="N198" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="O198" s="138"/>
+      <c r="O198" s="128"/>
     </row>
     <row r="199" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="73">
@@ -11380,10 +11384,10 @@
       <c r="B199" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="114"/>
-      <c r="D199" s="114"/>
-      <c r="E199" s="114"/>
-      <c r="F199" s="114"/>
+      <c r="C199" s="127"/>
+      <c r="D199" s="127"/>
+      <c r="E199" s="127"/>
+      <c r="F199" s="127"/>
       <c r="G199" s="68" t="s">
         <v>31</v>
       </c>
@@ -11402,7 +11406,7 @@
       <c r="N199" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="O199" s="138"/>
+      <c r="O199" s="128"/>
     </row>
     <row r="200" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="73">
@@ -11411,10 +11415,10 @@
       <c r="B200" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="C200" s="114"/>
-      <c r="D200" s="114"/>
-      <c r="E200" s="114"/>
-      <c r="F200" s="114"/>
+      <c r="C200" s="127"/>
+      <c r="D200" s="127"/>
+      <c r="E200" s="127"/>
+      <c r="F200" s="127"/>
       <c r="G200" s="68" t="s">
         <v>31</v>
       </c>
@@ -11433,7 +11437,7 @@
       <c r="N200" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="O200" s="138"/>
+      <c r="O200" s="128"/>
     </row>
     <row r="201" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="73">
@@ -11442,12 +11446,12 @@
       <c r="B201" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="C201" s="114"/>
-      <c r="D201" s="114"/>
-      <c r="E201" s="122" t="s">
+      <c r="C201" s="127"/>
+      <c r="D201" s="127"/>
+      <c r="E201" s="152" t="s">
         <v>377</v>
       </c>
-      <c r="F201" s="114"/>
+      <c r="F201" s="127"/>
       <c r="G201" s="69"/>
       <c r="H201" s="68" t="s">
         <v>31</v>
@@ -11464,7 +11468,7 @@
       <c r="N201" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="O201" s="138"/>
+      <c r="O201" s="128"/>
     </row>
     <row r="202" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="73">
@@ -11473,10 +11477,10 @@
       <c r="B202" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="114"/>
-      <c r="D202" s="114"/>
-      <c r="E202" s="114"/>
-      <c r="F202" s="114"/>
+      <c r="C202" s="127"/>
+      <c r="D202" s="127"/>
+      <c r="E202" s="127"/>
+      <c r="F202" s="127"/>
       <c r="G202" s="69"/>
       <c r="H202" s="68" t="s">
         <v>31</v>
@@ -11495,7 +11499,7 @@
       <c r="N202" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="O202" s="138"/>
+      <c r="O202" s="128"/>
     </row>
     <row r="203" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="73">
@@ -11504,10 +11508,10 @@
       <c r="B203" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C203" s="114"/>
-      <c r="D203" s="114"/>
-      <c r="E203" s="114"/>
-      <c r="F203" s="114"/>
+      <c r="C203" s="127"/>
+      <c r="D203" s="127"/>
+      <c r="E203" s="127"/>
+      <c r="F203" s="127"/>
       <c r="G203" s="69"/>
       <c r="H203" s="68" t="s">
         <v>31</v>
@@ -11524,7 +11528,7 @@
       <c r="N203" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="O203" s="138"/>
+      <c r="O203" s="128"/>
     </row>
     <row r="204" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="73">
@@ -11533,10 +11537,10 @@
       <c r="B204" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="C204" s="114"/>
-      <c r="D204" s="114"/>
-      <c r="E204" s="114"/>
-      <c r="F204" s="114"/>
+      <c r="C204" s="127"/>
+      <c r="D204" s="127"/>
+      <c r="E204" s="127"/>
+      <c r="F204" s="127"/>
       <c r="G204" s="69"/>
       <c r="H204" s="68" t="s">
         <v>31</v>
@@ -11553,7 +11557,7 @@
       <c r="N204" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="O204" s="138"/>
+      <c r="O204" s="128"/>
     </row>
     <row r="205" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="73">
@@ -11562,10 +11566,10 @@
       <c r="B205" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="C205" s="114"/>
-      <c r="D205" s="114"/>
-      <c r="E205" s="114"/>
-      <c r="F205" s="114"/>
+      <c r="C205" s="127"/>
+      <c r="D205" s="127"/>
+      <c r="E205" s="127"/>
+      <c r="F205" s="127"/>
       <c r="G205" s="69"/>
       <c r="H205" s="68" t="s">
         <v>31</v>
@@ -11582,7 +11586,7 @@
       <c r="N205" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="O205" s="138"/>
+      <c r="O205" s="128"/>
     </row>
     <row r="206" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="73">
@@ -11591,10 +11595,10 @@
       <c r="B206" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="C206" s="114"/>
-      <c r="D206" s="114"/>
-      <c r="E206" s="114"/>
-      <c r="F206" s="114"/>
+      <c r="C206" s="127"/>
+      <c r="D206" s="127"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
       <c r="G206" s="69"/>
       <c r="H206" s="68" t="s">
         <v>31</v>
@@ -11611,7 +11615,7 @@
       <c r="N206" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="O206" s="138"/>
+      <c r="O206" s="128"/>
     </row>
     <row r="207" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="73">
@@ -11620,10 +11624,10 @@
       <c r="B207" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="C207" s="114"/>
-      <c r="D207" s="114"/>
-      <c r="E207" s="114"/>
-      <c r="F207" s="114"/>
+      <c r="C207" s="127"/>
+      <c r="D207" s="127"/>
+      <c r="E207" s="127"/>
+      <c r="F207" s="127"/>
       <c r="G207" s="69"/>
       <c r="H207" s="69"/>
       <c r="I207" s="68" t="s">
@@ -11640,7 +11644,7 @@
       <c r="N207" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="O207" s="138"/>
+      <c r="O207" s="128"/>
     </row>
     <row r="208" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="73">
@@ -11649,10 +11653,10 @@
       <c r="B208" s="68" t="s">
         <v>391</v>
       </c>
-      <c r="C208" s="114"/>
-      <c r="D208" s="114"/>
-      <c r="E208" s="114"/>
-      <c r="F208" s="114"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="127"/>
+      <c r="E208" s="127"/>
+      <c r="F208" s="127"/>
       <c r="G208" s="69"/>
       <c r="H208" s="69"/>
       <c r="I208" s="69"/>
@@ -11671,7 +11675,7 @@
       <c r="N208" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="O208" s="138"/>
+      <c r="O208" s="128"/>
     </row>
     <row r="209" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="73">
@@ -11680,10 +11684,10 @@
       <c r="B209" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="C209" s="114"/>
-      <c r="D209" s="114"/>
-      <c r="E209" s="114"/>
-      <c r="F209" s="114"/>
+      <c r="C209" s="127"/>
+      <c r="D209" s="127"/>
+      <c r="E209" s="127"/>
+      <c r="F209" s="127"/>
       <c r="G209" s="68" t="s">
         <v>31</v>
       </c>
@@ -11704,7 +11708,7 @@
       <c r="N209" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="O209" s="138"/>
+      <c r="O209" s="128"/>
     </row>
     <row r="210" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="73">
@@ -11713,10 +11717,10 @@
       <c r="B210" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="C210" s="114"/>
-      <c r="D210" s="114"/>
-      <c r="E210" s="114"/>
-      <c r="F210" s="114"/>
+      <c r="C210" s="127"/>
+      <c r="D210" s="127"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
       <c r="G210" s="69"/>
       <c r="H210" s="69"/>
       <c r="I210" s="68" t="s">
@@ -11733,7 +11737,7 @@
       <c r="N210" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="O210" s="138"/>
+      <c r="O210" s="128"/>
     </row>
     <row r="211" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="73">
@@ -11742,10 +11746,10 @@
       <c r="B211" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="C211" s="114"/>
-      <c r="D211" s="114"/>
-      <c r="E211" s="114"/>
-      <c r="F211" s="114"/>
+      <c r="C211" s="127"/>
+      <c r="D211" s="127"/>
+      <c r="E211" s="127"/>
+      <c r="F211" s="127"/>
       <c r="G211" s="69"/>
       <c r="H211" s="68"/>
       <c r="I211" s="68"/>
@@ -11762,7 +11766,7 @@
       <c r="N211" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="138"/>
+      <c r="O211" s="128"/>
     </row>
     <row r="212" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="74">
@@ -11771,10 +11775,10 @@
       <c r="B212" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="C212" s="121"/>
-      <c r="D212" s="121"/>
-      <c r="E212" s="121"/>
-      <c r="F212" s="121"/>
+      <c r="C212" s="151"/>
+      <c r="D212" s="151"/>
+      <c r="E212" s="151"/>
+      <c r="F212" s="151"/>
       <c r="G212" s="76"/>
       <c r="H212" s="75" t="s">
         <v>31</v>
@@ -11795,7 +11799,7 @@
       <c r="N212" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="O212" s="146"/>
+      <c r="O212" s="154"/>
     </row>
     <row r="213" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12676,46 +12680,11 @@
     <row r="1089" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="F24:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F64:F92"/>
-    <mergeCell ref="F93:F125"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="D6:D23"/>
-    <mergeCell ref="E6:E18"/>
-    <mergeCell ref="C24:C42"/>
-    <mergeCell ref="O64:O77"/>
-    <mergeCell ref="O118:O127"/>
-    <mergeCell ref="O169:O180"/>
-    <mergeCell ref="E169:E174"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="F128:F143"/>
-    <mergeCell ref="F144:F168"/>
-    <mergeCell ref="F169:F180"/>
-    <mergeCell ref="O93:O117"/>
-    <mergeCell ref="O128:O143"/>
-    <mergeCell ref="O144:O168"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="D93:D143"/>
-    <mergeCell ref="D144:D180"/>
-    <mergeCell ref="E118:E143"/>
-    <mergeCell ref="E144:E168"/>
-    <mergeCell ref="O78:O92"/>
-    <mergeCell ref="E78:E92"/>
-    <mergeCell ref="E93:E117"/>
-    <mergeCell ref="D64:D92"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C6:C23"/>
+    <mergeCell ref="D24:D38"/>
+    <mergeCell ref="C43:C61"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D61"/>
     <mergeCell ref="F183:F212"/>
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="F45:F56"/>
@@ -12730,14 +12699,49 @@
     <mergeCell ref="O183:O212"/>
     <mergeCell ref="D183:D212"/>
     <mergeCell ref="C183:C212"/>
+    <mergeCell ref="E64:E77"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D144:D180"/>
+    <mergeCell ref="E118:E143"/>
+    <mergeCell ref="E144:E168"/>
+    <mergeCell ref="O78:O92"/>
+    <mergeCell ref="E78:E92"/>
+    <mergeCell ref="E93:E117"/>
+    <mergeCell ref="D64:D92"/>
+    <mergeCell ref="O169:O180"/>
+    <mergeCell ref="E169:E174"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="F128:F143"/>
+    <mergeCell ref="F144:F168"/>
+    <mergeCell ref="F169:F180"/>
+    <mergeCell ref="O128:O143"/>
+    <mergeCell ref="O144:O168"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="F24:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F64:F92"/>
+    <mergeCell ref="F93:F125"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="D6:D23"/>
+    <mergeCell ref="E6:E18"/>
+    <mergeCell ref="C24:C42"/>
+    <mergeCell ref="O64:O77"/>
+    <mergeCell ref="O118:O127"/>
+    <mergeCell ref="O93:O117"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="D93:D143"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="E24:E42"/>
-    <mergeCell ref="E64:E77"/>
-    <mergeCell ref="C6:C23"/>
-    <mergeCell ref="D24:D38"/>
-    <mergeCell ref="C43:C61"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D61"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/작업완료포트폴리오/3. 기능정의서/[6기]1조_전자결재페이지_기능정의서_Ver1.6.xlsx
+++ b/작업완료포트폴리오/3. 기능정의서/[6기]1조_전자결재페이지_기능정의서_Ver1.6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-23\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\3. 기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE885AA-9F7E-4FE1-AC2E-932926179127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -2093,7 +2094,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -3213,13 +3214,97 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3234,89 +3319,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3348,107 +3445,11 @@
     <xf numFmtId="49" fontId="18" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3664,13 +3665,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -3685,19 +3686,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3715,17 +3716,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3747,32 +3748,32 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="91"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3781,16 +3782,16 @@
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
@@ -3802,16 +3803,16 @@
       <c r="B7" s="8">
         <v>43716</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="96"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
@@ -3823,16 +3824,16 @@
       <c r="B8" s="11">
         <v>43717</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="12" t="s">
         <v>26</v>
       </c>
@@ -3844,16 +3845,16 @@
       <c r="B9" s="14">
         <v>43724</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
       <c r="K9" s="15" t="s">
         <v>26</v>
       </c>
@@ -3865,16 +3866,16 @@
       <c r="B10" s="14">
         <v>43726</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
@@ -3886,16 +3887,16 @@
       <c r="B11" s="14">
         <v>43734</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
       <c r="K11" s="15" t="s">
         <v>26</v>
       </c>
@@ -3907,16 +3908,16 @@
       <c r="B12" s="14">
         <v>43764</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="15" t="s">
         <v>26</v>
       </c>
@@ -3928,16 +3929,16 @@
       <c r="B13" s="17">
         <v>43781</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
       <c r="K13" s="18" t="s">
         <v>26</v>
       </c>
@@ -3945,14 +3946,14 @@
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3968,48 +3969,48 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
       <c r="K20" s="6" t="s">
         <v>22</v>
       </c>
@@ -4018,17 +4019,17 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="96"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="9" t="s">
         <v>26</v>
       </c>
@@ -4037,17 +4038,17 @@
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
       <c r="K22" s="12" t="s">
         <v>26</v>
       </c>
@@ -4056,71 +4057,71 @@
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
       <c r="K23" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="89"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="80"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="80"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="89"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4140,50 +4141,50 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="83"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="86" t="s">
+      <c r="C34" s="105"/>
+      <c r="D34" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="88"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="105"/>
       <c r="K34" s="23" t="s">
         <v>22</v>
       </c>
@@ -4192,19 +4193,19 @@
       <c r="A35" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="95" t="s">
+      <c r="C35" s="94"/>
+      <c r="D35" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="96"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="94"/>
       <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
@@ -4213,19 +4214,19 @@
       <c r="A36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="80"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
       <c r="K36" s="12" t="s">
         <v>26</v>
       </c>
@@ -4234,19 +4235,19 @@
       <c r="A37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="78" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
       <c r="K37" s="12" t="s">
         <v>26</v>
       </c>
@@ -4258,16 +4259,16 @@
       <c r="B38" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
       <c r="K38" s="26" t="s">
         <v>26</v>
       </c>
@@ -4276,19 +4277,19 @@
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="89"/>
+      <c r="D39" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
       <c r="K39" s="12" t="s">
         <v>26</v>
       </c>
@@ -4297,19 +4298,19 @@
       <c r="A40" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="78" t="s">
+      <c r="C40" s="89"/>
+      <c r="D40" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
       <c r="K40" s="12" t="s">
         <v>26</v>
       </c>
@@ -4318,19 +4319,19 @@
       <c r="A41" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="98" t="s">
+      <c r="C41" s="89"/>
+      <c r="D41" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="89"/>
       <c r="K41" s="15" t="s">
         <v>26</v>
       </c>
@@ -4339,19 +4340,19 @@
       <c r="A42" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="78" t="s">
+      <c r="C42" s="89"/>
+      <c r="D42" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
       <c r="K42" s="12" t="s">
         <v>26</v>
       </c>
@@ -4360,19 +4361,19 @@
       <c r="A43" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="98" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="80"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
       <c r="K43" s="15" t="s">
         <v>26</v>
       </c>
@@ -4381,19 +4382,19 @@
       <c r="A44" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="78" t="s">
+      <c r="C44" s="89"/>
+      <c r="D44" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="12" t="s">
         <v>26</v>
       </c>
@@ -4402,19 +4403,19 @@
       <c r="A45" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="78" t="s">
+      <c r="C45" s="89"/>
+      <c r="D45" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="80"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
       <c r="K45" s="12" t="s">
         <v>26</v>
       </c>
@@ -4423,19 +4424,19 @@
       <c r="A46" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="78" t="s">
+      <c r="C46" s="89"/>
+      <c r="D46" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="80"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
       <c r="K46" s="12" t="s">
         <v>26</v>
       </c>
@@ -4444,19 +4445,19 @@
       <c r="A47" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="78" t="s">
+      <c r="C47" s="89"/>
+      <c r="D47" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="89"/>
       <c r="K47" s="12" t="s">
         <v>26</v>
       </c>
@@ -4465,19 +4466,19 @@
       <c r="A48" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="78" t="s">
+      <c r="C48" s="89"/>
+      <c r="D48" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="80"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="12" t="s">
         <v>26</v>
       </c>
@@ -4486,19 +4487,19 @@
       <c r="A49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="78" t="s">
+      <c r="C49" s="89"/>
+      <c r="D49" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="89"/>
       <c r="K49" s="12" t="s">
         <v>26</v>
       </c>
@@ -4507,19 +4508,19 @@
       <c r="A50" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="78" t="s">
+      <c r="C50" s="89"/>
+      <c r="D50" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="80"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="89"/>
       <c r="K50" s="12" t="s">
         <v>26</v>
       </c>
@@ -4528,19 +4529,19 @@
       <c r="A51" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="81" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="83"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
       <c r="K51" s="28" t="s">
         <v>26</v>
       </c>
@@ -5511,25 +5512,28 @@
     <row r="1015" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A18:K19"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B45:C45"/>
@@ -5546,28 +5550,25 @@
     <mergeCell ref="D38:J38"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A18:K19"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5577,15 +5578,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P1089"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5604,49 +5605,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="146" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="138" t="s">
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="140" t="s">
+      <c r="O1" s="129" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="33" t="s">
         <v>12</v>
       </c>
@@ -5668,8 +5669,8 @@
       <c r="M2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="1:15" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
@@ -5707,23 +5708,23 @@
       <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="145"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
@@ -5732,14 +5733,14 @@
       <c r="B6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="113"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
@@ -5765,10 +5766,10 @@
       <c r="B7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
@@ -5794,10 +5795,10 @@
       <c r="B8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="114"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="146"/>
       <c r="G8" s="50"/>
       <c r="H8" s="49" t="s">
         <v>31</v>
@@ -5827,10 +5828,10 @@
       <c r="B9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="146"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
@@ -5856,10 +5857,10 @@
       <c r="B10" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="114"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="146"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
@@ -5885,10 +5886,10 @@
       <c r="B11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="50"/>
       <c r="H11" s="49" t="s">
         <v>31</v>
@@ -5918,10 +5919,10 @@
       <c r="B12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="114"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="146"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
@@ -5947,10 +5948,10 @@
       <c r="B13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -5976,10 +5977,10 @@
       <c r="B14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -6005,10 +6006,10 @@
       <c r="B15" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -6036,10 +6037,10 @@
       <c r="B16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="114"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="50"/>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
@@ -6065,10 +6066,10 @@
       <c r="B17" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="114"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
         <v>31</v>
@@ -6098,10 +6099,10 @@
       <c r="B18" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="50"/>
       <c r="H18" s="49" t="s">
         <v>31</v>
@@ -6131,12 +6132,12 @@
       <c r="B19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="155" t="s">
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="156" t="s">
         <v>607</v>
       </c>
-      <c r="F19" s="114"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="50"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
@@ -6164,10 +6165,10 @@
       <c r="B20" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="114"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="50"/>
       <c r="H20" s="49" t="s">
         <v>31</v>
@@ -6197,10 +6198,10 @@
       <c r="B21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="50"/>
       <c r="H21" s="49" t="s">
         <v>31</v>
@@ -6230,10 +6231,10 @@
       <c r="B22" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="114"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="50"/>
       <c r="H22" s="49" t="s">
         <v>31</v>
@@ -6263,10 +6264,10 @@
       <c r="B23" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="115"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="147"/>
       <c r="G23" s="50"/>
       <c r="H23" s="49"/>
       <c r="I23" s="50"/>
@@ -6294,12 +6295,12 @@
       <c r="B24" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="116"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="148"/>
       <c r="G24" s="50"/>
       <c r="H24" s="49" t="s">
         <v>31</v>
@@ -6329,10 +6330,10 @@
       <c r="B25" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="117"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="50"/>
       <c r="H25" s="49"/>
       <c r="I25" s="50"/>
@@ -6358,10 +6359,10 @@
       <c r="B26" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="117"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="50"/>
       <c r="H26" s="49"/>
       <c r="I26" s="50"/>
@@ -6387,10 +6388,10 @@
       <c r="B27" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="117"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="50"/>
       <c r="H27" s="49"/>
       <c r="I27" s="50"/>
@@ -6416,10 +6417,10 @@
       <c r="B28" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="117"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="149"/>
       <c r="G28" s="50"/>
       <c r="H28" s="49"/>
       <c r="I28" s="50"/>
@@ -6445,10 +6446,10 @@
       <c r="B29" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="117"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="149"/>
       <c r="G29" s="50"/>
       <c r="H29" s="49"/>
       <c r="I29" s="50"/>
@@ -6474,10 +6475,10 @@
       <c r="B30" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="117"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="50"/>
       <c r="H30" s="49"/>
       <c r="I30" s="50"/>
@@ -6505,10 +6506,10 @@
       <c r="B31" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="117"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
@@ -6534,10 +6535,10 @@
       <c r="B32" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="117"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
@@ -6563,10 +6564,10 @@
       <c r="B33" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="117"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="50"/>
       <c r="H33" s="49" t="s">
         <v>31</v>
@@ -6596,10 +6597,10 @@
       <c r="B34" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="117"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="49" t="s">
         <v>31</v>
       </c>
@@ -6629,10 +6630,10 @@
       <c r="B35" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="117"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="149"/>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
@@ -6660,10 +6661,10 @@
       <c r="B36" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="117"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="149"/>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
@@ -6691,10 +6692,10 @@
       <c r="B37" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="117"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
@@ -6722,10 +6723,10 @@
       <c r="B38" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="117"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="149"/>
       <c r="G38" s="50"/>
       <c r="H38" s="49"/>
       <c r="I38" s="50"/>
@@ -6751,12 +6752,12 @@
       <c r="B39" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125" t="s">
+      <c r="C39" s="113"/>
+      <c r="D39" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="117"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="50"/>
       <c r="H39" s="49" t="s">
         <v>31</v>
@@ -6784,10 +6785,10 @@
       <c r="B40" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="117"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="149"/>
       <c r="G40" s="50"/>
       <c r="H40" s="49" t="s">
         <v>31</v>
@@ -6815,10 +6816,10 @@
       <c r="B41" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="117"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="149"/>
       <c r="G41" s="50"/>
       <c r="H41" s="49" t="s">
         <v>31</v>
@@ -6848,10 +6849,10 @@
       <c r="B42" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="118"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="150"/>
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
@@ -6879,16 +6880,16 @@
       <c r="B43" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="116" t="s">
         <v>601</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="116" t="s">
         <v>575</v>
       </c>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="116"/>
+      <c r="F43" s="148"/>
       <c r="G43" s="50"/>
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
@@ -6914,10 +6915,10 @@
       <c r="B44" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="118"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="150"/>
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -6943,10 +6944,10 @@
       <c r="B45" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="125" t="s">
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="113" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="50"/>
@@ -6978,10 +6979,10 @@
       <c r="B46" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
       <c r="G46" s="50"/>
       <c r="H46" s="49" t="s">
         <v>31</v>
@@ -7013,10 +7014,10 @@
       <c r="B47" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="50"/>
       <c r="H47" s="49" t="s">
         <v>31</v>
@@ -7048,10 +7049,10 @@
       <c r="B48" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="50"/>
       <c r="H48" s="49" t="s">
         <v>31</v>
@@ -7081,10 +7082,10 @@
       <c r="B49" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="50"/>
       <c r="H49" s="49" t="s">
         <v>31</v>
@@ -7114,10 +7115,10 @@
       <c r="B50" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="50"/>
       <c r="H50" s="49" t="s">
         <v>31</v>
@@ -7149,10 +7150,10 @@
       <c r="B51" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
       <c r="G51" s="50"/>
       <c r="H51" s="49" t="s">
         <v>31</v>
@@ -7184,10 +7185,10 @@
       <c r="B52" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
       <c r="G52" s="50"/>
       <c r="H52" s="49" t="s">
         <v>31</v>
@@ -7219,10 +7220,10 @@
       <c r="B53" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
       <c r="G53" s="50"/>
       <c r="H53" s="49" t="s">
         <v>31</v>
@@ -7254,10 +7255,10 @@
       <c r="B54" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
       <c r="G54" s="50"/>
       <c r="H54" s="49" t="s">
         <v>31</v>
@@ -7289,10 +7290,10 @@
       <c r="B55" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
@@ -7318,10 +7319,10 @@
       <c r="B56" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
       <c r="I56" s="49" t="s">
@@ -7351,10 +7352,10 @@
       <c r="B57" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="125" t="s">
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="113" t="s">
         <v>253</v>
       </c>
       <c r="G57" s="50"/>
@@ -7382,10 +7383,10 @@
       <c r="B58" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
@@ -7411,10 +7412,10 @@
       <c r="B59" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
@@ -7440,10 +7441,10 @@
       <c r="B60" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
@@ -7471,10 +7472,10 @@
       <c r="B61" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="61"/>
       <c r="H61" s="61"/>
       <c r="I61" s="60" t="s">
@@ -7514,23 +7515,23 @@
       <c r="N62" s="36"/>
     </row>
     <row r="63" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="154" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="123"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="123"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="123"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="123"/>
-      <c r="L63" s="123"/>
-      <c r="M63" s="123"/>
-      <c r="N63" s="123"/>
-      <c r="O63" s="124"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="123"/>
     </row>
     <row r="64" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="67" t="s">
@@ -7539,14 +7540,14 @@
       <c r="B64" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="137" t="s">
+      <c r="C64" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="124" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="156"/>
-      <c r="F64" s="119"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="151"/>
       <c r="G64" s="50"/>
       <c r="H64" s="64" t="s">
         <v>31</v>
@@ -7567,7 +7568,7 @@
       <c r="N64" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="O64" s="128" t="s">
+      <c r="O64" s="125" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7578,10 +7579,10 @@
       <c r="B65" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="120"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="152"/>
       <c r="G65" s="64" t="s">
         <v>31</v>
       </c>
@@ -7602,7 +7603,7 @@
       <c r="N65" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="O65" s="128"/>
+      <c r="O65" s="125"/>
     </row>
     <row r="66" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="67" t="s">
@@ -7611,10 +7612,10 @@
       <c r="B66" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="120"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="152"/>
       <c r="G66" s="50"/>
       <c r="H66" s="64" t="s">
         <v>31</v>
@@ -7635,7 +7636,7 @@
       <c r="N66" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="O66" s="128"/>
+      <c r="O66" s="125"/>
     </row>
     <row r="67" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="67" t="s">
@@ -7644,10 +7645,10 @@
       <c r="B67" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="120"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="152"/>
       <c r="G67" s="50"/>
       <c r="H67" s="64"/>
       <c r="I67" s="64"/>
@@ -7662,7 +7663,7 @@
       <c r="N67" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="O67" s="128"/>
+      <c r="O67" s="125"/>
     </row>
     <row r="68" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="67" t="s">
@@ -7671,10 +7672,10 @@
       <c r="B68" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="120"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="152"/>
       <c r="G68" s="50"/>
       <c r="H68" s="64"/>
       <c r="I68" s="64"/>
@@ -7689,7 +7690,7 @@
       <c r="N68" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="O68" s="128"/>
+      <c r="O68" s="125"/>
     </row>
     <row r="69" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="67" t="s">
@@ -7698,10 +7699,10 @@
       <c r="B69" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="137"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="120"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="152"/>
       <c r="G69" s="50"/>
       <c r="H69" s="64" t="s">
         <v>31</v>
@@ -7720,7 +7721,7 @@
       <c r="N69" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="O69" s="128"/>
+      <c r="O69" s="125"/>
     </row>
     <row r="70" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="67" t="s">
@@ -7729,10 +7730,10 @@
       <c r="B70" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="120"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="152"/>
       <c r="G70" s="50"/>
       <c r="H70" s="64" t="s">
         <v>31</v>
@@ -7751,7 +7752,7 @@
       <c r="N70" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="O70" s="128"/>
+      <c r="O70" s="125"/>
     </row>
     <row r="71" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="67" t="s">
@@ -7760,10 +7761,10 @@
       <c r="B71" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="120"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="152"/>
       <c r="G71" s="50"/>
       <c r="H71" s="64" t="s">
         <v>31</v>
@@ -7782,7 +7783,7 @@
       <c r="N71" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="O71" s="128"/>
+      <c r="O71" s="125"/>
     </row>
     <row r="72" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="67" t="s">
@@ -7791,10 +7792,10 @@
       <c r="B72" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="120"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="152"/>
       <c r="G72" s="50"/>
       <c r="H72" s="64" t="s">
         <v>31</v>
@@ -7813,7 +7814,7 @@
       <c r="N72" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="O72" s="128"/>
+      <c r="O72" s="125"/>
     </row>
     <row r="73" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="67" t="s">
@@ -7822,10 +7823,10 @@
       <c r="B73" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="120"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="152"/>
       <c r="G73" s="50"/>
       <c r="H73" s="64"/>
       <c r="I73" s="50"/>
@@ -7840,7 +7841,7 @@
       <c r="N73" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="O73" s="128"/>
+      <c r="O73" s="125"/>
     </row>
     <row r="74" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="67" t="s">
@@ -7849,10 +7850,10 @@
       <c r="B74" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="137"/>
-      <c r="D74" s="137"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="120"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="152"/>
       <c r="G74" s="50"/>
       <c r="H74" s="64" t="s">
         <v>31</v>
@@ -7871,7 +7872,7 @@
       <c r="N74" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="O74" s="128"/>
+      <c r="O74" s="125"/>
     </row>
     <row r="75" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="67" t="s">
@@ -7880,10 +7881,10 @@
       <c r="B75" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="137"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="120"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="152"/>
       <c r="G75" s="50"/>
       <c r="H75" s="64" t="s">
         <v>31</v>
@@ -7902,7 +7903,7 @@
       <c r="N75" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O75" s="128"/>
+      <c r="O75" s="125"/>
     </row>
     <row r="76" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="67" t="s">
@@ -7911,10 +7912,10 @@
       <c r="B76" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="137"/>
-      <c r="D76" s="137"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="120"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="152"/>
       <c r="G76" s="50"/>
       <c r="H76" s="64" t="s">
         <v>31</v>
@@ -7933,7 +7934,7 @@
       <c r="N76" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="O76" s="128"/>
+      <c r="O76" s="125"/>
     </row>
     <row r="77" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="67" t="s">
@@ -7942,10 +7943,10 @@
       <c r="B77" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="137"/>
-      <c r="D77" s="137"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="120"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="152"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
@@ -7960,7 +7961,7 @@
       <c r="N77" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="O77" s="128"/>
+      <c r="O77" s="125"/>
     </row>
     <row r="78" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
@@ -7969,12 +7970,12 @@
       <c r="B78" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="133" t="s">
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="F78" s="120"/>
+      <c r="F78" s="152"/>
       <c r="G78" s="39"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -7989,7 +7990,7 @@
       <c r="N78" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="O78" s="129" t="s">
+      <c r="O78" s="140" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8000,10 +8001,10 @@
       <c r="B79" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C79" s="137"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="133"/>
-      <c r="F79" s="120"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="152"/>
       <c r="G79" s="39"/>
       <c r="H79" s="38" t="s">
         <v>31</v>
@@ -8022,7 +8023,7 @@
       <c r="N79" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="O79" s="129"/>
+      <c r="O79" s="140"/>
     </row>
     <row r="80" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
@@ -8031,10 +8032,10 @@
       <c r="B80" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="120"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="152"/>
       <c r="G80" s="39"/>
       <c r="H80" s="38" t="s">
         <v>31</v>
@@ -8053,7 +8054,7 @@
       <c r="N80" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O80" s="129"/>
+      <c r="O80" s="140"/>
     </row>
     <row r="81" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
@@ -8062,10 +8063,10 @@
       <c r="B81" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="120"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="141"/>
+      <c r="F81" s="152"/>
       <c r="G81" s="38" t="s">
         <v>31</v>
       </c>
@@ -8084,7 +8085,7 @@
       <c r="N81" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="O81" s="129"/>
+      <c r="O81" s="140"/>
     </row>
     <row r="82" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
@@ -8093,10 +8094,10 @@
       <c r="B82" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="120"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="152"/>
       <c r="G82" s="38"/>
       <c r="H82" s="39"/>
       <c r="I82" s="39"/>
@@ -8111,7 +8112,7 @@
       <c r="N82" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="O82" s="129"/>
+      <c r="O82" s="140"/>
     </row>
     <row r="83" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
@@ -8120,10 +8121,10 @@
       <c r="B83" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="120"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="152"/>
       <c r="G83" s="38"/>
       <c r="H83" s="39"/>
       <c r="I83" s="39"/>
@@ -8138,7 +8139,7 @@
       <c r="N83" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="O83" s="129"/>
+      <c r="O83" s="140"/>
     </row>
     <row r="84" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
@@ -8147,10 +8148,10 @@
       <c r="B84" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="120"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="152"/>
       <c r="G84" s="38"/>
       <c r="H84" s="39"/>
       <c r="I84" s="39"/>
@@ -8165,7 +8166,7 @@
       <c r="N84" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O84" s="129"/>
+      <c r="O84" s="140"/>
     </row>
     <row r="85" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
@@ -8174,10 +8175,10 @@
       <c r="B85" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="120"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="152"/>
       <c r="G85" s="38"/>
       <c r="H85" s="39"/>
       <c r="I85" s="39"/>
@@ -8192,7 +8193,7 @@
       <c r="N85" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="O85" s="129"/>
+      <c r="O85" s="140"/>
     </row>
     <row r="86" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
@@ -8201,10 +8202,10 @@
       <c r="B86" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="120"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="141"/>
+      <c r="F86" s="152"/>
       <c r="G86" s="38"/>
       <c r="H86" s="39"/>
       <c r="I86" s="39"/>
@@ -8219,7 +8220,7 @@
       <c r="N86" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O86" s="129"/>
+      <c r="O86" s="140"/>
     </row>
     <row r="87" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
@@ -8228,10 +8229,10 @@
       <c r="B87" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="133"/>
-      <c r="F87" s="120"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="152"/>
       <c r="G87" s="38"/>
       <c r="H87" s="39"/>
       <c r="I87" s="39"/>
@@ -8246,7 +8247,7 @@
       <c r="N87" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="O87" s="129"/>
+      <c r="O87" s="140"/>
     </row>
     <row r="88" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
@@ -8255,10 +8256,10 @@
       <c r="B88" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="120"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="152"/>
       <c r="G88" s="38" t="s">
         <v>31</v>
       </c>
@@ -8277,7 +8278,7 @@
       <c r="N88" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="O88" s="129"/>
+      <c r="O88" s="140"/>
     </row>
     <row r="89" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
@@ -8286,10 +8287,10 @@
       <c r="B89" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="120"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="152"/>
       <c r="G89" s="38"/>
       <c r="H89" s="39"/>
       <c r="I89" s="39"/>
@@ -8304,7 +8305,7 @@
       <c r="N89" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="O89" s="129"/>
+      <c r="O89" s="140"/>
     </row>
     <row r="90" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
@@ -8313,10 +8314,10 @@
       <c r="B90" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="133"/>
-      <c r="F90" s="120"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="141"/>
+      <c r="F90" s="152"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
       <c r="I90" s="39"/>
@@ -8331,7 +8332,7 @@
       <c r="N90" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O90" s="129"/>
+      <c r="O90" s="140"/>
     </row>
     <row r="91" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
@@ -8340,10 +8341,10 @@
       <c r="B91" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C91" s="137"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="133"/>
-      <c r="F91" s="120"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="141"/>
+      <c r="F91" s="152"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="39"/>
@@ -8358,7 +8359,7 @@
       <c r="N91" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O91" s="129"/>
+      <c r="O91" s="140"/>
     </row>
     <row r="92" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
@@ -8367,10 +8368,10 @@
       <c r="B92" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="133"/>
-      <c r="F92" s="121"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="141"/>
+      <c r="F92" s="153"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
       <c r="I92" s="39"/>
@@ -8385,7 +8386,7 @@
       <c r="N92" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O92" s="129"/>
+      <c r="O92" s="140"/>
     </row>
     <row r="93" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
@@ -8394,16 +8395,16 @@
       <c r="B93" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C93" s="131" t="s">
+      <c r="C93" s="116" t="s">
         <v>602</v>
       </c>
-      <c r="D93" s="131" t="s">
+      <c r="D93" s="116" t="s">
         <v>603</v>
       </c>
-      <c r="E93" s="133" t="s">
+      <c r="E93" s="141" t="s">
         <v>307</v>
       </c>
-      <c r="F93" s="119"/>
+      <c r="F93" s="151"/>
       <c r="G93" s="39"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -8418,7 +8419,7 @@
       <c r="N93" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="O93" s="129" t="s">
+      <c r="O93" s="140" t="s">
         <v>606</v>
       </c>
     </row>
@@ -8429,10 +8430,10 @@
       <c r="B94" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="133"/>
-      <c r="F94" s="120"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="116"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="152"/>
       <c r="G94" s="39"/>
       <c r="H94" s="38" t="s">
         <v>31</v>
@@ -8451,7 +8452,7 @@
       <c r="N94" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="O94" s="129"/>
+      <c r="O94" s="140"/>
     </row>
     <row r="95" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
@@ -8460,10 +8461,10 @@
       <c r="B95" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="133"/>
-      <c r="F95" s="120"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="152"/>
       <c r="G95" s="39"/>
       <c r="H95" s="38" t="s">
         <v>31</v>
@@ -8482,7 +8483,7 @@
       <c r="N95" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O95" s="129"/>
+      <c r="O95" s="140"/>
     </row>
     <row r="96" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
@@ -8491,10 +8492,10 @@
       <c r="B96" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="133"/>
-      <c r="F96" s="120"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="116"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="152"/>
       <c r="G96" s="38" t="s">
         <v>31</v>
       </c>
@@ -8513,7 +8514,7 @@
       <c r="N96" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="O96" s="129"/>
+      <c r="O96" s="140"/>
     </row>
     <row r="97" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
@@ -8522,10 +8523,10 @@
       <c r="B97" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="133"/>
-      <c r="F97" s="120"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="152"/>
       <c r="G97" s="38"/>
       <c r="H97" s="39"/>
       <c r="I97" s="39"/>
@@ -8540,7 +8541,7 @@
       <c r="N97" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="O97" s="129"/>
+      <c r="O97" s="140"/>
     </row>
     <row r="98" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
@@ -8549,10 +8550,10 @@
       <c r="B98" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="133"/>
-      <c r="F98" s="120"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="116"/>
+      <c r="E98" s="141"/>
+      <c r="F98" s="152"/>
       <c r="G98" s="38"/>
       <c r="H98" s="39"/>
       <c r="I98" s="39"/>
@@ -8567,7 +8568,7 @@
       <c r="N98" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="O98" s="129"/>
+      <c r="O98" s="140"/>
     </row>
     <row r="99" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
@@ -8576,10 +8577,10 @@
       <c r="B99" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="C99" s="131"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="133"/>
-      <c r="F99" s="120"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="152"/>
       <c r="G99" s="38"/>
       <c r="H99" s="39"/>
       <c r="I99" s="39"/>
@@ -8594,7 +8595,7 @@
       <c r="N99" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="O99" s="129"/>
+      <c r="O99" s="140"/>
     </row>
     <row r="100" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
@@ -8603,10 +8604,10 @@
       <c r="B100" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="133"/>
-      <c r="F100" s="120"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="152"/>
       <c r="G100" s="38"/>
       <c r="H100" s="39"/>
       <c r="I100" s="39"/>
@@ -8621,7 +8622,7 @@
       <c r="N100" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="O100" s="129"/>
+      <c r="O100" s="140"/>
     </row>
     <row r="101" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="37" t="s">
@@ -8630,10 +8631,10 @@
       <c r="B101" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="133"/>
-      <c r="F101" s="120"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="141"/>
+      <c r="F101" s="152"/>
       <c r="G101" s="38"/>
       <c r="H101" s="39"/>
       <c r="I101" s="39"/>
@@ -8648,7 +8649,7 @@
       <c r="N101" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="O101" s="129"/>
+      <c r="O101" s="140"/>
     </row>
     <row r="102" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37" t="s">
@@ -8657,10 +8658,10 @@
       <c r="B102" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="133"/>
-      <c r="F102" s="120"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="152"/>
       <c r="G102" s="38"/>
       <c r="H102" s="39"/>
       <c r="I102" s="39"/>
@@ -8675,7 +8676,7 @@
       <c r="N102" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="O102" s="129"/>
+      <c r="O102" s="140"/>
     </row>
     <row r="103" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37" t="s">
@@ -8684,10 +8685,10 @@
       <c r="B103" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="C103" s="131"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="133"/>
-      <c r="F103" s="120"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="152"/>
       <c r="G103" s="38"/>
       <c r="H103" s="39"/>
       <c r="I103" s="39"/>
@@ -8702,7 +8703,7 @@
       <c r="N103" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="O103" s="129"/>
+      <c r="O103" s="140"/>
     </row>
     <row r="104" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="37" t="s">
@@ -8711,10 +8712,10 @@
       <c r="B104" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="133"/>
-      <c r="F104" s="120"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="141"/>
+      <c r="F104" s="152"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
       <c r="I104" s="39"/>
@@ -8729,7 +8730,7 @@
       <c r="N104" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="O104" s="129"/>
+      <c r="O104" s="140"/>
     </row>
     <row r="105" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37" t="s">
@@ -8738,10 +8739,10 @@
       <c r="B105" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="131"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="133"/>
-      <c r="F105" s="120"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="141"/>
+      <c r="F105" s="152"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
       <c r="I105" s="39"/>
@@ -8756,7 +8757,7 @@
       <c r="N105" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="O105" s="129"/>
+      <c r="O105" s="140"/>
     </row>
     <row r="106" spans="1:15" s="41" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37" t="s">
@@ -8765,10 +8766,10 @@
       <c r="B106" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="133"/>
-      <c r="F106" s="120"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="116"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="152"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="39"/>
@@ -8783,7 +8784,7 @@
       <c r="N106" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="O106" s="129"/>
+      <c r="O106" s="140"/>
     </row>
     <row r="107" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37" t="s">
@@ -8792,10 +8793,10 @@
       <c r="B107" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="131"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="120"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="116"/>
+      <c r="E107" s="141"/>
+      <c r="F107" s="152"/>
       <c r="G107" s="38"/>
       <c r="H107" s="39"/>
       <c r="I107" s="39"/>
@@ -8810,7 +8811,7 @@
       <c r="N107" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O107" s="129"/>
+      <c r="O107" s="140"/>
     </row>
     <row r="108" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37" t="s">
@@ -8819,10 +8820,10 @@
       <c r="B108" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="131"/>
-      <c r="D108" s="131"/>
-      <c r="E108" s="133"/>
-      <c r="F108" s="120"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
+      <c r="E108" s="141"/>
+      <c r="F108" s="152"/>
       <c r="G108" s="38"/>
       <c r="H108" s="39"/>
       <c r="I108" s="39"/>
@@ -8837,7 +8838,7 @@
       <c r="N108" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="O108" s="129"/>
+      <c r="O108" s="140"/>
     </row>
     <row r="109" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="37" t="s">
@@ -8846,10 +8847,10 @@
       <c r="B109" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="131"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="120"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="116"/>
+      <c r="E109" s="141"/>
+      <c r="F109" s="152"/>
       <c r="G109" s="38"/>
       <c r="H109" s="39"/>
       <c r="I109" s="39"/>
@@ -8864,7 +8865,7 @@
       <c r="N109" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O109" s="129"/>
+      <c r="O109" s="140"/>
     </row>
     <row r="110" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="37" t="s">
@@ -8873,10 +8874,10 @@
       <c r="B110" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="C110" s="131"/>
-      <c r="D110" s="131"/>
-      <c r="E110" s="133"/>
-      <c r="F110" s="120"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="141"/>
+      <c r="F110" s="152"/>
       <c r="G110" s="38"/>
       <c r="H110" s="39"/>
       <c r="I110" s="39"/>
@@ -8891,7 +8892,7 @@
       <c r="N110" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="O110" s="129"/>
+      <c r="O110" s="140"/>
     </row>
     <row r="111" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="37" t="s">
@@ -8900,10 +8901,10 @@
       <c r="B111" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="131"/>
-      <c r="D111" s="131"/>
-      <c r="E111" s="133"/>
-      <c r="F111" s="120"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="152"/>
       <c r="G111" s="38"/>
       <c r="H111" s="39"/>
       <c r="I111" s="39"/>
@@ -8918,7 +8919,7 @@
       <c r="N111" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="O111" s="129"/>
+      <c r="O111" s="140"/>
     </row>
     <row r="112" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="37" t="s">
@@ -8927,10 +8928,10 @@
       <c r="B112" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="C112" s="131"/>
-      <c r="D112" s="131"/>
-      <c r="E112" s="133"/>
-      <c r="F112" s="120"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="141"/>
+      <c r="F112" s="152"/>
       <c r="G112" s="38"/>
       <c r="H112" s="39"/>
       <c r="I112" s="39"/>
@@ -8945,7 +8946,7 @@
       <c r="N112" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="O112" s="129"/>
+      <c r="O112" s="140"/>
     </row>
     <row r="113" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="37" t="s">
@@ -8954,10 +8955,10 @@
       <c r="B113" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="C113" s="131"/>
-      <c r="D113" s="131"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="120"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
+      <c r="E113" s="141"/>
+      <c r="F113" s="152"/>
       <c r="G113" s="38" t="s">
         <v>31</v>
       </c>
@@ -8976,7 +8977,7 @@
       <c r="N113" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="O113" s="129"/>
+      <c r="O113" s="140"/>
     </row>
     <row r="114" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="37" t="s">
@@ -8985,10 +8986,10 @@
       <c r="B114" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="133"/>
-      <c r="F114" s="120"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="141"/>
+      <c r="F114" s="152"/>
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
       <c r="I114" s="39"/>
@@ -9003,7 +9004,7 @@
       <c r="N114" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="O114" s="129"/>
+      <c r="O114" s="140"/>
     </row>
     <row r="115" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="37" t="s">
@@ -9012,10 +9013,10 @@
       <c r="B115" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="C115" s="131"/>
-      <c r="D115" s="131"/>
-      <c r="E115" s="133"/>
-      <c r="F115" s="120"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="141"/>
+      <c r="F115" s="152"/>
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
       <c r="I115" s="39"/>
@@ -9030,7 +9031,7 @@
       <c r="N115" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O115" s="129"/>
+      <c r="O115" s="140"/>
     </row>
     <row r="116" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37" t="s">
@@ -9039,10 +9040,10 @@
       <c r="B116" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="C116" s="131"/>
-      <c r="D116" s="131"/>
-      <c r="E116" s="133"/>
-      <c r="F116" s="120"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="141"/>
+      <c r="F116" s="152"/>
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
       <c r="I116" s="39"/>
@@ -9057,7 +9058,7 @@
       <c r="N116" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O116" s="129"/>
+      <c r="O116" s="140"/>
     </row>
     <row r="117" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="37" t="s">
@@ -9066,10 +9067,10 @@
       <c r="B117" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="C117" s="131"/>
-      <c r="D117" s="131"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="120"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="141"/>
+      <c r="F117" s="152"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
       <c r="I117" s="39"/>
@@ -9084,7 +9085,7 @@
       <c r="N117" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O117" s="129"/>
+      <c r="O117" s="140"/>
     </row>
     <row r="118" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="37" t="s">
@@ -9093,12 +9094,12 @@
       <c r="B118" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C118" s="131"/>
-      <c r="D118" s="131"/>
-      <c r="E118" s="136" t="s">
+      <c r="C118" s="116"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="139" t="s">
         <v>570</v>
       </c>
-      <c r="F118" s="120"/>
+      <c r="F118" s="152"/>
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
       <c r="I118" s="39"/>
@@ -9113,7 +9114,7 @@
       <c r="N118" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="O118" s="129" t="s">
+      <c r="O118" s="140" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9124,10 +9125,10 @@
       <c r="B119" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="131"/>
-      <c r="D119" s="131"/>
-      <c r="E119" s="136"/>
-      <c r="F119" s="120"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116"/>
+      <c r="E119" s="139"/>
+      <c r="F119" s="152"/>
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
       <c r="I119" s="39"/>
@@ -9142,7 +9143,7 @@
       <c r="N119" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="O119" s="129"/>
+      <c r="O119" s="140"/>
     </row>
     <row r="120" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="37" t="s">
@@ -9151,10 +9152,10 @@
       <c r="B120" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131"/>
-      <c r="E120" s="136"/>
-      <c r="F120" s="120"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="139"/>
+      <c r="F120" s="152"/>
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
       <c r="I120" s="39"/>
@@ -9169,7 +9170,7 @@
       <c r="N120" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O120" s="129"/>
+      <c r="O120" s="140"/>
     </row>
     <row r="121" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="37" t="s">
@@ -9178,10 +9179,10 @@
       <c r="B121" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="C121" s="131"/>
-      <c r="D121" s="131"/>
-      <c r="E121" s="136"/>
-      <c r="F121" s="120"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="139"/>
+      <c r="F121" s="152"/>
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
       <c r="I121" s="39"/>
@@ -9196,7 +9197,7 @@
       <c r="N121" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="O121" s="129"/>
+      <c r="O121" s="140"/>
     </row>
     <row r="122" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="37" t="s">
@@ -9205,10 +9206,10 @@
       <c r="B122" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C122" s="131"/>
-      <c r="D122" s="131"/>
-      <c r="E122" s="136"/>
-      <c r="F122" s="120"/>
+      <c r="C122" s="116"/>
+      <c r="D122" s="116"/>
+      <c r="E122" s="139"/>
+      <c r="F122" s="152"/>
       <c r="G122" s="39"/>
       <c r="H122" s="38" t="s">
         <v>31</v>
@@ -9227,7 +9228,7 @@
       <c r="N122" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="O122" s="129"/>
+      <c r="O122" s="140"/>
     </row>
     <row r="123" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="37" t="s">
@@ -9236,10 +9237,10 @@
       <c r="B123" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="131"/>
-      <c r="D123" s="131"/>
-      <c r="E123" s="136"/>
-      <c r="F123" s="120"/>
+      <c r="C123" s="116"/>
+      <c r="D123" s="116"/>
+      <c r="E123" s="139"/>
+      <c r="F123" s="152"/>
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
       <c r="I123" s="39"/>
@@ -9254,7 +9255,7 @@
       <c r="N123" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="O123" s="129"/>
+      <c r="O123" s="140"/>
     </row>
     <row r="124" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="37" t="s">
@@ -9263,10 +9264,10 @@
       <c r="B124" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="131"/>
-      <c r="D124" s="131"/>
-      <c r="E124" s="136"/>
-      <c r="F124" s="120"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="116"/>
+      <c r="E124" s="139"/>
+      <c r="F124" s="152"/>
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
       <c r="I124" s="39"/>
@@ -9281,7 +9282,7 @@
       <c r="N124" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="O124" s="129"/>
+      <c r="O124" s="140"/>
     </row>
     <row r="125" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="37" t="s">
@@ -9290,10 +9291,10 @@
       <c r="B125" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="131"/>
-      <c r="D125" s="131"/>
-      <c r="E125" s="136"/>
-      <c r="F125" s="121"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="139"/>
+      <c r="F125" s="153"/>
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
       <c r="I125" s="39"/>
@@ -9312,7 +9313,7 @@
       <c r="N125" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="O125" s="129"/>
+      <c r="O125" s="140"/>
     </row>
     <row r="126" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37" t="s">
@@ -9321,10 +9322,10 @@
       <c r="B126" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="C126" s="131"/>
-      <c r="D126" s="131"/>
-      <c r="E126" s="136"/>
-      <c r="F126" s="119"/>
+      <c r="C126" s="116"/>
+      <c r="D126" s="116"/>
+      <c r="E126" s="139"/>
+      <c r="F126" s="151"/>
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
       <c r="I126" s="39"/>
@@ -9339,7 +9340,7 @@
       <c r="N126" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O126" s="129"/>
+      <c r="O126" s="140"/>
     </row>
     <row r="127" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="37" t="s">
@@ -9348,10 +9349,10 @@
       <c r="B127" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="C127" s="131"/>
-      <c r="D127" s="131"/>
-      <c r="E127" s="136"/>
-      <c r="F127" s="121"/>
+      <c r="C127" s="116"/>
+      <c r="D127" s="116"/>
+      <c r="E127" s="139"/>
+      <c r="F127" s="153"/>
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
       <c r="I127" s="39"/>
@@ -9366,7 +9367,7 @@
       <c r="N127" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O127" s="129"/>
+      <c r="O127" s="140"/>
     </row>
     <row r="128" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="37" t="s">
@@ -9375,10 +9376,10 @@
       <c r="B128" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="C128" s="131"/>
-      <c r="D128" s="131"/>
-      <c r="E128" s="136"/>
-      <c r="F128" s="133" t="s">
+      <c r="C128" s="116"/>
+      <c r="D128" s="116"/>
+      <c r="E128" s="139"/>
+      <c r="F128" s="141" t="s">
         <v>573</v>
       </c>
       <c r="G128" s="39"/>
@@ -9399,7 +9400,7 @@
       <c r="N128" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="O128" s="129" t="s">
+      <c r="O128" s="140" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9410,10 +9411,10 @@
       <c r="B129" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="136"/>
-      <c r="F129" s="134"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="139"/>
+      <c r="F129" s="143"/>
       <c r="G129" s="39"/>
       <c r="H129" s="38" t="s">
         <v>31</v>
@@ -9432,7 +9433,7 @@
       <c r="N129" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="O129" s="129"/>
+      <c r="O129" s="140"/>
     </row>
     <row r="130" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="37" t="s">
@@ -9441,10 +9442,10 @@
       <c r="B130" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="C130" s="131"/>
-      <c r="D130" s="131"/>
-      <c r="E130" s="136"/>
-      <c r="F130" s="134"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="116"/>
+      <c r="E130" s="139"/>
+      <c r="F130" s="143"/>
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
       <c r="I130" s="39"/>
@@ -9459,7 +9460,7 @@
       <c r="N130" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="O130" s="129"/>
+      <c r="O130" s="140"/>
     </row>
     <row r="131" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="37" t="s">
@@ -9468,10 +9469,10 @@
       <c r="B131" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="C131" s="131"/>
-      <c r="D131" s="131"/>
-      <c r="E131" s="136"/>
-      <c r="F131" s="134"/>
+      <c r="C131" s="116"/>
+      <c r="D131" s="116"/>
+      <c r="E131" s="139"/>
+      <c r="F131" s="143"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38" t="s">
         <v>31</v>
@@ -9490,7 +9491,7 @@
       <c r="N131" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="O131" s="129"/>
+      <c r="O131" s="140"/>
     </row>
     <row r="132" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="37" t="s">
@@ -9499,10 +9500,10 @@
       <c r="B132" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="C132" s="131"/>
-      <c r="D132" s="131"/>
-      <c r="E132" s="136"/>
-      <c r="F132" s="134"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="139"/>
+      <c r="F132" s="143"/>
       <c r="G132" s="39"/>
       <c r="H132" s="66"/>
       <c r="I132" s="38"/>
@@ -9517,7 +9518,7 @@
       <c r="N132" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="O132" s="129"/>
+      <c r="O132" s="140"/>
     </row>
     <row r="133" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="37" t="s">
@@ -9526,10 +9527,10 @@
       <c r="B133" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="C133" s="131"/>
-      <c r="D133" s="131"/>
-      <c r="E133" s="136"/>
-      <c r="F133" s="134"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="116"/>
+      <c r="E133" s="139"/>
+      <c r="F133" s="143"/>
       <c r="G133" s="38"/>
       <c r="H133" s="39"/>
       <c r="I133" s="39"/>
@@ -9544,7 +9545,7 @@
       <c r="N133" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="O133" s="129"/>
+      <c r="O133" s="140"/>
     </row>
     <row r="134" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="37" t="s">
@@ -9553,10 +9554,10 @@
       <c r="B134" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="131"/>
-      <c r="D134" s="131"/>
-      <c r="E134" s="136"/>
-      <c r="F134" s="134"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="139"/>
+      <c r="F134" s="143"/>
       <c r="G134" s="38"/>
       <c r="H134" s="39"/>
       <c r="I134" s="39"/>
@@ -9571,7 +9572,7 @@
       <c r="N134" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="O134" s="129"/>
+      <c r="O134" s="140"/>
     </row>
     <row r="135" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="37" t="s">
@@ -9580,10 +9581,10 @@
       <c r="B135" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="C135" s="131"/>
-      <c r="D135" s="131"/>
-      <c r="E135" s="136"/>
-      <c r="F135" s="134"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="143"/>
       <c r="G135" s="38"/>
       <c r="H135" s="39"/>
       <c r="I135" s="39"/>
@@ -9598,7 +9599,7 @@
       <c r="N135" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O135" s="129"/>
+      <c r="O135" s="140"/>
     </row>
     <row r="136" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="37" t="s">
@@ -9607,10 +9608,10 @@
       <c r="B136" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="C136" s="131"/>
-      <c r="D136" s="131"/>
-      <c r="E136" s="136"/>
-      <c r="F136" s="134"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="139"/>
+      <c r="F136" s="143"/>
       <c r="G136" s="38"/>
       <c r="H136" s="39"/>
       <c r="I136" s="39"/>
@@ -9625,7 +9626,7 @@
       <c r="N136" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="O136" s="129"/>
+      <c r="O136" s="140"/>
     </row>
     <row r="137" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="37" t="s">
@@ -9634,10 +9635,10 @@
       <c r="B137" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C137" s="131"/>
-      <c r="D137" s="131"/>
-      <c r="E137" s="136"/>
-      <c r="F137" s="134"/>
+      <c r="C137" s="116"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="139"/>
+      <c r="F137" s="143"/>
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
       <c r="I137" s="39"/>
@@ -9652,7 +9653,7 @@
       <c r="N137" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O137" s="129"/>
+      <c r="O137" s="140"/>
     </row>
     <row r="138" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="37" t="s">
@@ -9661,10 +9662,10 @@
       <c r="B138" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="C138" s="131"/>
-      <c r="D138" s="131"/>
-      <c r="E138" s="136"/>
-      <c r="F138" s="134"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="116"/>
+      <c r="E138" s="139"/>
+      <c r="F138" s="143"/>
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
       <c r="I138" s="39"/>
@@ -9679,7 +9680,7 @@
       <c r="N138" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="O138" s="129"/>
+      <c r="O138" s="140"/>
     </row>
     <row r="139" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="37" t="s">
@@ -9688,10 +9689,10 @@
       <c r="B139" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="C139" s="131"/>
-      <c r="D139" s="131"/>
-      <c r="E139" s="136"/>
-      <c r="F139" s="134"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="139"/>
+      <c r="F139" s="143"/>
       <c r="G139" s="66"/>
       <c r="H139" s="39"/>
       <c r="I139" s="38" t="s">
@@ -9710,7 +9711,7 @@
       <c r="N139" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="O139" s="129"/>
+      <c r="O139" s="140"/>
     </row>
     <row r="140" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="37" t="s">
@@ -9719,10 +9720,10 @@
       <c r="B140" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="C140" s="131"/>
-      <c r="D140" s="131"/>
-      <c r="E140" s="136"/>
-      <c r="F140" s="134"/>
+      <c r="C140" s="116"/>
+      <c r="D140" s="116"/>
+      <c r="E140" s="139"/>
+      <c r="F140" s="143"/>
       <c r="G140" s="38"/>
       <c r="H140" s="39"/>
       <c r="I140" s="39"/>
@@ -9737,7 +9738,7 @@
       <c r="N140" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O140" s="129"/>
+      <c r="O140" s="140"/>
     </row>
     <row r="141" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="37" t="s">
@@ -9746,10 +9747,10 @@
       <c r="B141" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="C141" s="131"/>
-      <c r="D141" s="131"/>
-      <c r="E141" s="136"/>
-      <c r="F141" s="134"/>
+      <c r="C141" s="116"/>
+      <c r="D141" s="116"/>
+      <c r="E141" s="139"/>
+      <c r="F141" s="143"/>
       <c r="G141" s="39"/>
       <c r="H141" s="39"/>
       <c r="I141" s="39"/>
@@ -9764,7 +9765,7 @@
       <c r="N141" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="O141" s="129"/>
+      <c r="O141" s="140"/>
     </row>
     <row r="142" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="37" t="s">
@@ -9773,10 +9774,10 @@
       <c r="B142" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="C142" s="131"/>
-      <c r="D142" s="131"/>
-      <c r="E142" s="136"/>
-      <c r="F142" s="134"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="116"/>
+      <c r="E142" s="139"/>
+      <c r="F142" s="143"/>
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
       <c r="I142" s="39"/>
@@ -9791,7 +9792,7 @@
       <c r="N142" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O142" s="129"/>
+      <c r="O142" s="140"/>
     </row>
     <row r="143" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="37" t="s">
@@ -9800,10 +9801,10 @@
       <c r="B143" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="C143" s="131"/>
-      <c r="D143" s="131"/>
-      <c r="E143" s="136"/>
-      <c r="F143" s="134"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="139"/>
+      <c r="F143" s="143"/>
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
       <c r="I143" s="39"/>
@@ -9818,7 +9819,7 @@
       <c r="N143" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="O143" s="129"/>
+      <c r="O143" s="140"/>
     </row>
     <row r="144" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="37" t="s">
@@ -9827,16 +9828,16 @@
       <c r="B144" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="C144" s="131" t="s">
+      <c r="C144" s="116" t="s">
         <v>602</v>
       </c>
-      <c r="D144" s="131" t="s">
+      <c r="D144" s="116" t="s">
         <v>604</v>
       </c>
-      <c r="E144" s="136" t="s">
+      <c r="E144" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="F144" s="133" t="s">
+      <c r="F144" s="141" t="s">
         <v>574</v>
       </c>
       <c r="G144" s="39"/>
@@ -9857,7 +9858,7 @@
       <c r="N144" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="O144" s="129" t="s">
+      <c r="O144" s="140" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9868,10 +9869,10 @@
       <c r="B145" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="C145" s="131"/>
-      <c r="D145" s="131"/>
-      <c r="E145" s="136"/>
-      <c r="F145" s="134"/>
+      <c r="C145" s="116"/>
+      <c r="D145" s="116"/>
+      <c r="E145" s="139"/>
+      <c r="F145" s="143"/>
       <c r="G145" s="39"/>
       <c r="H145" s="38" t="s">
         <v>31</v>
@@ -9890,7 +9891,7 @@
       <c r="N145" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="O145" s="129"/>
+      <c r="O145" s="140"/>
     </row>
     <row r="146" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="37" t="s">
@@ -9899,10 +9900,10 @@
       <c r="B146" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="C146" s="131"/>
-      <c r="D146" s="131"/>
-      <c r="E146" s="136"/>
-      <c r="F146" s="134"/>
+      <c r="C146" s="116"/>
+      <c r="D146" s="116"/>
+      <c r="E146" s="139"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
       <c r="I146" s="39"/>
@@ -9917,7 +9918,7 @@
       <c r="N146" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="O146" s="129"/>
+      <c r="O146" s="140"/>
     </row>
     <row r="147" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="37" t="s">
@@ -9926,10 +9927,10 @@
       <c r="B147" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="C147" s="131"/>
-      <c r="D147" s="131"/>
-      <c r="E147" s="136"/>
-      <c r="F147" s="134"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="139"/>
+      <c r="F147" s="143"/>
       <c r="G147" s="38"/>
       <c r="H147" s="38" t="s">
         <v>31</v>
@@ -9948,7 +9949,7 @@
       <c r="N147" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="O147" s="129"/>
+      <c r="O147" s="140"/>
     </row>
     <row r="148" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="37" t="s">
@@ -9957,10 +9958,10 @@
       <c r="B148" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="C148" s="131"/>
-      <c r="D148" s="131"/>
-      <c r="E148" s="136"/>
-      <c r="F148" s="134"/>
+      <c r="C148" s="116"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="139"/>
+      <c r="F148" s="143"/>
       <c r="G148" s="39"/>
       <c r="H148" s="66"/>
       <c r="I148" s="38"/>
@@ -9975,7 +9976,7 @@
       <c r="N148" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="O148" s="129"/>
+      <c r="O148" s="140"/>
     </row>
     <row r="149" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="37" t="s">
@@ -9984,10 +9985,10 @@
       <c r="B149" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="C149" s="131"/>
-      <c r="D149" s="131"/>
-      <c r="E149" s="136"/>
-      <c r="F149" s="134"/>
+      <c r="C149" s="116"/>
+      <c r="D149" s="116"/>
+      <c r="E149" s="139"/>
+      <c r="F149" s="143"/>
       <c r="G149" s="38"/>
       <c r="H149" s="39"/>
       <c r="I149" s="39"/>
@@ -10002,7 +10003,7 @@
       <c r="N149" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="O149" s="129"/>
+      <c r="O149" s="140"/>
     </row>
     <row r="150" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="37" t="s">
@@ -10011,10 +10012,10 @@
       <c r="B150" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="C150" s="131"/>
-      <c r="D150" s="131"/>
-      <c r="E150" s="136"/>
-      <c r="F150" s="134"/>
+      <c r="C150" s="116"/>
+      <c r="D150" s="116"/>
+      <c r="E150" s="139"/>
+      <c r="F150" s="143"/>
       <c r="G150" s="38"/>
       <c r="H150" s="39"/>
       <c r="I150" s="39"/>
@@ -10029,7 +10030,7 @@
       <c r="N150" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="O150" s="129"/>
+      <c r="O150" s="140"/>
     </row>
     <row r="151" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="37" t="s">
@@ -10038,10 +10039,10 @@
       <c r="B151" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="C151" s="131"/>
-      <c r="D151" s="131"/>
-      <c r="E151" s="136"/>
-      <c r="F151" s="134"/>
+      <c r="C151" s="116"/>
+      <c r="D151" s="116"/>
+      <c r="E151" s="139"/>
+      <c r="F151" s="143"/>
       <c r="G151" s="38"/>
       <c r="H151" s="39"/>
       <c r="I151" s="39"/>
@@ -10056,7 +10057,7 @@
       <c r="N151" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="O151" s="129"/>
+      <c r="O151" s="140"/>
     </row>
     <row r="152" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="37" t="s">
@@ -10065,10 +10066,10 @@
       <c r="B152" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="C152" s="131"/>
-      <c r="D152" s="131"/>
-      <c r="E152" s="136"/>
-      <c r="F152" s="134"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="116"/>
+      <c r="E152" s="139"/>
+      <c r="F152" s="143"/>
       <c r="G152" s="38"/>
       <c r="H152" s="39"/>
       <c r="I152" s="39"/>
@@ -10083,7 +10084,7 @@
       <c r="N152" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="O152" s="129"/>
+      <c r="O152" s="140"/>
     </row>
     <row r="153" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="37" t="s">
@@ -10092,10 +10093,10 @@
       <c r="B153" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C153" s="131"/>
-      <c r="D153" s="131"/>
-      <c r="E153" s="136"/>
-      <c r="F153" s="134"/>
+      <c r="C153" s="116"/>
+      <c r="D153" s="116"/>
+      <c r="E153" s="139"/>
+      <c r="F153" s="143"/>
       <c r="G153" s="38"/>
       <c r="H153" s="39"/>
       <c r="I153" s="39"/>
@@ -10110,7 +10111,7 @@
       <c r="N153" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="O153" s="129"/>
+      <c r="O153" s="140"/>
     </row>
     <row r="154" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="37" t="s">
@@ -10119,10 +10120,10 @@
       <c r="B154" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="131"/>
-      <c r="D154" s="131"/>
-      <c r="E154" s="136"/>
-      <c r="F154" s="134"/>
+      <c r="C154" s="116"/>
+      <c r="D154" s="116"/>
+      <c r="E154" s="139"/>
+      <c r="F154" s="143"/>
       <c r="G154" s="38"/>
       <c r="H154" s="39"/>
       <c r="I154" s="39"/>
@@ -10137,7 +10138,7 @@
       <c r="N154" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="O154" s="129"/>
+      <c r="O154" s="140"/>
     </row>
     <row r="155" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="37" t="s">
@@ -10146,10 +10147,10 @@
       <c r="B155" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="131"/>
-      <c r="D155" s="131"/>
-      <c r="E155" s="136"/>
-      <c r="F155" s="134"/>
+      <c r="C155" s="116"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="139"/>
+      <c r="F155" s="143"/>
       <c r="G155" s="38"/>
       <c r="H155" s="39"/>
       <c r="I155" s="39"/>
@@ -10164,7 +10165,7 @@
       <c r="N155" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="O155" s="129"/>
+      <c r="O155" s="140"/>
     </row>
     <row r="156" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="37" t="s">
@@ -10173,10 +10174,10 @@
       <c r="B156" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="C156" s="131"/>
-      <c r="D156" s="131"/>
-      <c r="E156" s="136"/>
-      <c r="F156" s="134"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="139"/>
+      <c r="F156" s="143"/>
       <c r="G156" s="38"/>
       <c r="H156" s="39"/>
       <c r="I156" s="39"/>
@@ -10191,7 +10192,7 @@
       <c r="N156" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="O156" s="129"/>
+      <c r="O156" s="140"/>
     </row>
     <row r="157" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
@@ -10200,10 +10201,10 @@
       <c r="B157" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C157" s="131"/>
-      <c r="D157" s="131"/>
-      <c r="E157" s="136"/>
-      <c r="F157" s="134"/>
+      <c r="C157" s="116"/>
+      <c r="D157" s="116"/>
+      <c r="E157" s="139"/>
+      <c r="F157" s="143"/>
       <c r="G157" s="38"/>
       <c r="H157" s="39"/>
       <c r="I157" s="39"/>
@@ -10218,7 +10219,7 @@
       <c r="N157" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="O157" s="129"/>
+      <c r="O157" s="140"/>
     </row>
     <row r="158" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
@@ -10227,10 +10228,10 @@
       <c r="B158" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C158" s="131"/>
-      <c r="D158" s="131"/>
-      <c r="E158" s="136"/>
-      <c r="F158" s="134"/>
+      <c r="C158" s="116"/>
+      <c r="D158" s="116"/>
+      <c r="E158" s="139"/>
+      <c r="F158" s="143"/>
       <c r="G158" s="38"/>
       <c r="H158" s="39"/>
       <c r="I158" s="39"/>
@@ -10245,7 +10246,7 @@
       <c r="N158" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="O158" s="129"/>
+      <c r="O158" s="140"/>
     </row>
     <row r="159" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="37" t="s">
@@ -10254,10 +10255,10 @@
       <c r="B159" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="C159" s="131"/>
-      <c r="D159" s="131"/>
-      <c r="E159" s="136"/>
-      <c r="F159" s="134"/>
+      <c r="C159" s="116"/>
+      <c r="D159" s="116"/>
+      <c r="E159" s="139"/>
+      <c r="F159" s="143"/>
       <c r="G159" s="38"/>
       <c r="H159" s="39"/>
       <c r="I159" s="39"/>
@@ -10272,7 +10273,7 @@
       <c r="N159" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="O159" s="129"/>
+      <c r="O159" s="140"/>
     </row>
     <row r="160" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="37" t="s">
@@ -10281,10 +10282,10 @@
       <c r="B160" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="C160" s="131"/>
-      <c r="D160" s="131"/>
-      <c r="E160" s="136"/>
-      <c r="F160" s="134"/>
+      <c r="C160" s="116"/>
+      <c r="D160" s="116"/>
+      <c r="E160" s="139"/>
+      <c r="F160" s="143"/>
       <c r="G160" s="38"/>
       <c r="H160" s="39"/>
       <c r="I160" s="39"/>
@@ -10299,7 +10300,7 @@
       <c r="N160" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="O160" s="129"/>
+      <c r="O160" s="140"/>
     </row>
     <row r="161" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="37" t="s">
@@ -10308,10 +10309,10 @@
       <c r="B161" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="C161" s="131"/>
-      <c r="D161" s="131"/>
-      <c r="E161" s="136"/>
-      <c r="F161" s="134"/>
+      <c r="C161" s="116"/>
+      <c r="D161" s="116"/>
+      <c r="E161" s="139"/>
+      <c r="F161" s="143"/>
       <c r="G161" s="38"/>
       <c r="H161" s="39"/>
       <c r="I161" s="39"/>
@@ -10326,7 +10327,7 @@
       <c r="N161" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="O161" s="129"/>
+      <c r="O161" s="140"/>
     </row>
     <row r="162" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="37" t="s">
@@ -10335,10 +10336,10 @@
       <c r="B162" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="C162" s="131"/>
-      <c r="D162" s="131"/>
-      <c r="E162" s="136"/>
-      <c r="F162" s="134"/>
+      <c r="C162" s="116"/>
+      <c r="D162" s="116"/>
+      <c r="E162" s="139"/>
+      <c r="F162" s="143"/>
       <c r="G162" s="38"/>
       <c r="H162" s="39"/>
       <c r="I162" s="39"/>
@@ -10353,7 +10354,7 @@
       <c r="N162" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="O162" s="129"/>
+      <c r="O162" s="140"/>
     </row>
     <row r="163" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="37" t="s">
@@ -10362,10 +10363,10 @@
       <c r="B163" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="C163" s="131"/>
-      <c r="D163" s="131"/>
-      <c r="E163" s="136"/>
-      <c r="F163" s="134"/>
+      <c r="C163" s="116"/>
+      <c r="D163" s="116"/>
+      <c r="E163" s="139"/>
+      <c r="F163" s="143"/>
       <c r="G163" s="38"/>
       <c r="H163" s="39"/>
       <c r="I163" s="39"/>
@@ -10380,7 +10381,7 @@
       <c r="N163" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="O163" s="129"/>
+      <c r="O163" s="140"/>
     </row>
     <row r="164" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="37" t="s">
@@ -10389,10 +10390,10 @@
       <c r="B164" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="C164" s="131"/>
-      <c r="D164" s="131"/>
-      <c r="E164" s="136"/>
-      <c r="F164" s="134"/>
+      <c r="C164" s="116"/>
+      <c r="D164" s="116"/>
+      <c r="E164" s="139"/>
+      <c r="F164" s="143"/>
       <c r="G164" s="38"/>
       <c r="H164" s="39"/>
       <c r="I164" s="38" t="s">
@@ -10411,7 +10412,7 @@
       <c r="N164" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="O164" s="129"/>
+      <c r="O164" s="140"/>
     </row>
     <row r="165" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="37" t="s">
@@ -10420,10 +10421,10 @@
       <c r="B165" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="C165" s="131"/>
-      <c r="D165" s="131"/>
-      <c r="E165" s="136"/>
-      <c r="F165" s="134"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
+      <c r="E165" s="139"/>
+      <c r="F165" s="143"/>
       <c r="G165" s="66"/>
       <c r="H165" s="39"/>
       <c r="I165" s="39"/>
@@ -10438,7 +10439,7 @@
       <c r="N165" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O165" s="129"/>
+      <c r="O165" s="140"/>
     </row>
     <row r="166" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="37" t="s">
@@ -10447,10 +10448,10 @@
       <c r="B166" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="C166" s="131"/>
-      <c r="D166" s="131"/>
-      <c r="E166" s="136"/>
-      <c r="F166" s="134"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="116"/>
+      <c r="E166" s="139"/>
+      <c r="F166" s="143"/>
       <c r="G166" s="39"/>
       <c r="H166" s="39"/>
       <c r="I166" s="39"/>
@@ -10465,7 +10466,7 @@
       <c r="N166" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="O166" s="129"/>
+      <c r="O166" s="140"/>
     </row>
     <row r="167" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="37" t="s">
@@ -10474,10 +10475,10 @@
       <c r="B167" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C167" s="131"/>
-      <c r="D167" s="131"/>
-      <c r="E167" s="136"/>
-      <c r="F167" s="134"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="116"/>
+      <c r="E167" s="139"/>
+      <c r="F167" s="143"/>
       <c r="G167" s="39"/>
       <c r="H167" s="39"/>
       <c r="I167" s="39"/>
@@ -10492,7 +10493,7 @@
       <c r="N167" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O167" s="129"/>
+      <c r="O167" s="140"/>
     </row>
     <row r="168" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="37" t="s">
@@ -10501,10 +10502,10 @@
       <c r="B168" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C168" s="131"/>
-      <c r="D168" s="131"/>
-      <c r="E168" s="136"/>
-      <c r="F168" s="134"/>
+      <c r="C168" s="116"/>
+      <c r="D168" s="116"/>
+      <c r="E168" s="139"/>
+      <c r="F168" s="143"/>
       <c r="G168" s="39"/>
       <c r="H168" s="39"/>
       <c r="I168" s="39"/>
@@ -10519,7 +10520,7 @@
       <c r="N168" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O168" s="129"/>
+      <c r="O168" s="140"/>
     </row>
     <row r="169" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="37" t="s">
@@ -10528,12 +10529,12 @@
       <c r="B169" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="C169" s="131"/>
-      <c r="D169" s="131"/>
-      <c r="E169" s="131" t="s">
+      <c r="C169" s="116"/>
+      <c r="D169" s="116"/>
+      <c r="E169" s="116" t="s">
         <v>571</v>
       </c>
-      <c r="F169" s="134"/>
+      <c r="F169" s="143"/>
       <c r="G169" s="39"/>
       <c r="H169" s="39"/>
       <c r="I169" s="39"/>
@@ -10548,7 +10549,7 @@
       <c r="N169" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="O169" s="129" t="s">
+      <c r="O169" s="140" t="s">
         <v>546</v>
       </c>
     </row>
@@ -10559,10 +10560,10 @@
       <c r="B170" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="C170" s="131"/>
-      <c r="D170" s="131"/>
-      <c r="E170" s="131"/>
-      <c r="F170" s="134"/>
+      <c r="C170" s="116"/>
+      <c r="D170" s="116"/>
+      <c r="E170" s="116"/>
+      <c r="F170" s="143"/>
       <c r="G170" s="39"/>
       <c r="H170" s="39"/>
       <c r="I170" s="39"/>
@@ -10577,7 +10578,7 @@
       <c r="N170" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="O170" s="129"/>
+      <c r="O170" s="140"/>
     </row>
     <row r="171" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="37" t="s">
@@ -10586,10 +10587,10 @@
       <c r="B171" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C171" s="131"/>
-      <c r="D171" s="131"/>
-      <c r="E171" s="131"/>
-      <c r="F171" s="134"/>
+      <c r="C171" s="116"/>
+      <c r="D171" s="116"/>
+      <c r="E171" s="116"/>
+      <c r="F171" s="143"/>
       <c r="G171" s="39"/>
       <c r="H171" s="39"/>
       <c r="I171" s="39"/>
@@ -10604,7 +10605,7 @@
       <c r="N171" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O171" s="129"/>
+      <c r="O171" s="140"/>
     </row>
     <row r="172" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="37" t="s">
@@ -10613,10 +10614,10 @@
       <c r="B172" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="C172" s="131"/>
-      <c r="D172" s="131"/>
-      <c r="E172" s="131"/>
-      <c r="F172" s="134"/>
+      <c r="C172" s="116"/>
+      <c r="D172" s="116"/>
+      <c r="E172" s="116"/>
+      <c r="F172" s="143"/>
       <c r="G172" s="39"/>
       <c r="H172" s="39"/>
       <c r="I172" s="39"/>
@@ -10631,7 +10632,7 @@
       <c r="N172" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O172" s="129"/>
+      <c r="O172" s="140"/>
     </row>
     <row r="173" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="37" t="s">
@@ -10640,10 +10641,10 @@
       <c r="B173" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="C173" s="131"/>
-      <c r="D173" s="131"/>
-      <c r="E173" s="131"/>
-      <c r="F173" s="134"/>
+      <c r="C173" s="116"/>
+      <c r="D173" s="116"/>
+      <c r="E173" s="116"/>
+      <c r="F173" s="143"/>
       <c r="G173" s="39"/>
       <c r="H173" s="39"/>
       <c r="I173" s="38" t="s">
@@ -10662,7 +10663,7 @@
       <c r="N173" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O173" s="129"/>
+      <c r="O173" s="140"/>
     </row>
     <row r="174" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="37" t="s">
@@ -10671,10 +10672,10 @@
       <c r="B174" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="C174" s="131"/>
-      <c r="D174" s="131"/>
-      <c r="E174" s="131"/>
-      <c r="F174" s="134"/>
+      <c r="C174" s="116"/>
+      <c r="D174" s="116"/>
+      <c r="E174" s="116"/>
+      <c r="F174" s="143"/>
       <c r="G174" s="39"/>
       <c r="H174" s="39"/>
       <c r="I174" s="39"/>
@@ -10689,7 +10690,7 @@
       <c r="N174" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="O174" s="129"/>
+      <c r="O174" s="140"/>
     </row>
     <row r="175" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="37" t="s">
@@ -10698,12 +10699,12 @@
       <c r="B175" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="C175" s="131"/>
-      <c r="D175" s="131"/>
-      <c r="E175" s="131" t="s">
+      <c r="C175" s="116"/>
+      <c r="D175" s="116"/>
+      <c r="E175" s="116" t="s">
         <v>572</v>
       </c>
-      <c r="F175" s="134"/>
+      <c r="F175" s="143"/>
       <c r="G175" s="39"/>
       <c r="H175" s="39"/>
       <c r="I175" s="39"/>
@@ -10718,7 +10719,7 @@
       <c r="N175" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="O175" s="129"/>
+      <c r="O175" s="140"/>
     </row>
     <row r="176" spans="1:15" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="37" t="s">
@@ -10727,10 +10728,10 @@
       <c r="B176" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="C176" s="131"/>
-      <c r="D176" s="131"/>
-      <c r="E176" s="131"/>
-      <c r="F176" s="134"/>
+      <c r="C176" s="116"/>
+      <c r="D176" s="116"/>
+      <c r="E176" s="116"/>
+      <c r="F176" s="143"/>
       <c r="G176" s="39"/>
       <c r="H176" s="39"/>
       <c r="I176" s="39"/>
@@ -10745,7 +10746,7 @@
       <c r="N176" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="O176" s="129"/>
+      <c r="O176" s="140"/>
     </row>
     <row r="177" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="37" t="s">
@@ -10754,10 +10755,10 @@
       <c r="B177" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="C177" s="131"/>
-      <c r="D177" s="131"/>
-      <c r="E177" s="131"/>
-      <c r="F177" s="134"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="116"/>
+      <c r="E177" s="116"/>
+      <c r="F177" s="143"/>
       <c r="G177" s="39"/>
       <c r="H177" s="39"/>
       <c r="I177" s="39"/>
@@ -10772,7 +10773,7 @@
       <c r="N177" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="O177" s="129"/>
+      <c r="O177" s="140"/>
     </row>
     <row r="178" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="37" t="s">
@@ -10781,10 +10782,10 @@
       <c r="B178" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="C178" s="131"/>
-      <c r="D178" s="131"/>
-      <c r="E178" s="131"/>
-      <c r="F178" s="134"/>
+      <c r="C178" s="116"/>
+      <c r="D178" s="116"/>
+      <c r="E178" s="116"/>
+      <c r="F178" s="143"/>
       <c r="G178" s="39"/>
       <c r="H178" s="39"/>
       <c r="I178" s="39"/>
@@ -10799,7 +10800,7 @@
       <c r="N178" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="O178" s="129"/>
+      <c r="O178" s="140"/>
     </row>
     <row r="179" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="37" t="s">
@@ -10808,10 +10809,10 @@
       <c r="B179" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="C179" s="131"/>
-      <c r="D179" s="131"/>
-      <c r="E179" s="131"/>
-      <c r="F179" s="134"/>
+      <c r="C179" s="116"/>
+      <c r="D179" s="116"/>
+      <c r="E179" s="116"/>
+      <c r="F179" s="143"/>
       <c r="G179" s="39"/>
       <c r="H179" s="39"/>
       <c r="I179" s="38" t="s">
@@ -10830,7 +10831,7 @@
       <c r="N179" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="O179" s="129"/>
+      <c r="O179" s="140"/>
     </row>
     <row r="180" spans="1:16" s="40" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
@@ -10839,10 +10840,10 @@
       <c r="B180" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="C180" s="132"/>
-      <c r="D180" s="132"/>
-      <c r="E180" s="132"/>
-      <c r="F180" s="135"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="117"/>
+      <c r="E180" s="117"/>
+      <c r="F180" s="144"/>
       <c r="G180" s="45"/>
       <c r="H180" s="45"/>
       <c r="I180" s="45"/>
@@ -10857,7 +10858,7 @@
       <c r="N180" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="O180" s="130"/>
+      <c r="O180" s="142"/>
       <c r="P180" s="42"/>
     </row>
     <row r="181" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10877,23 +10878,23 @@
       <c r="N181" s="36"/>
     </row>
     <row r="182" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="153" t="s">
+      <c r="A182" s="121" t="s">
         <v>336</v>
       </c>
-      <c r="B182" s="123"/>
-      <c r="C182" s="123"/>
-      <c r="D182" s="123"/>
-      <c r="E182" s="123"/>
-      <c r="F182" s="123"/>
-      <c r="G182" s="123"/>
-      <c r="H182" s="123"/>
-      <c r="I182" s="123"/>
-      <c r="J182" s="123"/>
-      <c r="K182" s="123"/>
-      <c r="L182" s="123"/>
-      <c r="M182" s="123"/>
-      <c r="N182" s="123"/>
-      <c r="O182" s="124"/>
+      <c r="B182" s="122"/>
+      <c r="C182" s="122"/>
+      <c r="D182" s="122"/>
+      <c r="E182" s="122"/>
+      <c r="F182" s="122"/>
+      <c r="G182" s="122"/>
+      <c r="H182" s="122"/>
+      <c r="I182" s="122"/>
+      <c r="J182" s="122"/>
+      <c r="K182" s="122"/>
+      <c r="L182" s="122"/>
+      <c r="M182" s="122"/>
+      <c r="N182" s="122"/>
+      <c r="O182" s="123"/>
     </row>
     <row r="183" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="72" t="s">
@@ -10902,14 +10903,14 @@
       <c r="B183" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="C183" s="152" t="s">
+      <c r="C183" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="D183" s="152" t="s">
+      <c r="D183" s="120" t="s">
         <v>338</v>
       </c>
-      <c r="E183" s="150"/>
-      <c r="F183" s="150"/>
+      <c r="E183" s="118"/>
+      <c r="F183" s="118"/>
       <c r="G183" s="69"/>
       <c r="H183" s="68" t="s">
         <v>31</v>
@@ -10926,7 +10927,7 @@
       <c r="N183" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="O183" s="128" t="s">
+      <c r="O183" s="125" t="s">
         <v>340</v>
       </c>
     </row>
@@ -10937,10 +10938,10 @@
       <c r="B184" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="C184" s="127"/>
-      <c r="D184" s="127"/>
-      <c r="E184" s="127"/>
-      <c r="F184" s="127"/>
+      <c r="C184" s="115"/>
+      <c r="D184" s="115"/>
+      <c r="E184" s="115"/>
+      <c r="F184" s="115"/>
       <c r="G184" s="69"/>
       <c r="H184" s="68" t="s">
         <v>31</v>
@@ -10959,7 +10960,7 @@
       <c r="N184" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="O184" s="128"/>
+      <c r="O184" s="125"/>
     </row>
     <row r="185" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="72" t="s">
@@ -10968,10 +10969,10 @@
       <c r="B185" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="C185" s="127"/>
-      <c r="D185" s="127"/>
-      <c r="E185" s="127"/>
-      <c r="F185" s="127"/>
+      <c r="C185" s="115"/>
+      <c r="D185" s="115"/>
+      <c r="E185" s="115"/>
+      <c r="F185" s="115"/>
       <c r="G185" s="68" t="s">
         <v>31</v>
       </c>
@@ -10992,7 +10993,7 @@
       <c r="N185" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="O185" s="128"/>
+      <c r="O185" s="125"/>
     </row>
     <row r="186" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="72" t="s">
@@ -11001,10 +11002,10 @@
       <c r="B186" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="C186" s="127"/>
-      <c r="D186" s="127"/>
-      <c r="E186" s="127"/>
-      <c r="F186" s="127"/>
+      <c r="C186" s="115"/>
+      <c r="D186" s="115"/>
+      <c r="E186" s="115"/>
+      <c r="F186" s="115"/>
       <c r="G186" s="68" t="s">
         <v>31</v>
       </c>
@@ -11023,7 +11024,7 @@
       <c r="N186" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="O186" s="128"/>
+      <c r="O186" s="125"/>
     </row>
     <row r="187" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="72" t="s">
@@ -11032,10 +11033,10 @@
       <c r="B187" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="C187" s="127"/>
-      <c r="D187" s="127"/>
-      <c r="E187" s="127"/>
-      <c r="F187" s="127"/>
+      <c r="C187" s="115"/>
+      <c r="D187" s="115"/>
+      <c r="E187" s="115"/>
+      <c r="F187" s="115"/>
       <c r="G187" s="68" t="s">
         <v>31</v>
       </c>
@@ -11054,7 +11055,7 @@
       <c r="N187" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="O187" s="128"/>
+      <c r="O187" s="125"/>
     </row>
     <row r="188" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="72" t="s">
@@ -11063,10 +11064,10 @@
       <c r="B188" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="C188" s="127"/>
-      <c r="D188" s="127"/>
-      <c r="E188" s="127"/>
-      <c r="F188" s="127"/>
+      <c r="C188" s="115"/>
+      <c r="D188" s="115"/>
+      <c r="E188" s="115"/>
+      <c r="F188" s="115"/>
       <c r="G188" s="68" t="s">
         <v>31</v>
       </c>
@@ -11087,7 +11088,7 @@
       <c r="N188" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="O188" s="128"/>
+      <c r="O188" s="125"/>
     </row>
     <row r="189" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="72" t="s">
@@ -11096,10 +11097,10 @@
       <c r="B189" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="C189" s="127"/>
-      <c r="D189" s="127"/>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
+      <c r="C189" s="115"/>
+      <c r="D189" s="115"/>
+      <c r="E189" s="115"/>
+      <c r="F189" s="115"/>
       <c r="G189" s="69"/>
       <c r="H189" s="68" t="s">
         <v>31</v>
@@ -11118,7 +11119,7 @@
       <c r="N189" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="O189" s="128"/>
+      <c r="O189" s="125"/>
     </row>
     <row r="190" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="72" t="s">
@@ -11127,10 +11128,10 @@
       <c r="B190" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="127"/>
-      <c r="D190" s="127"/>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
+      <c r="C190" s="115"/>
+      <c r="D190" s="115"/>
+      <c r="E190" s="115"/>
+      <c r="F190" s="115"/>
       <c r="G190" s="69"/>
       <c r="H190" s="68"/>
       <c r="I190" s="69"/>
@@ -11145,7 +11146,7 @@
       <c r="N190" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="O190" s="128"/>
+      <c r="O190" s="125"/>
     </row>
     <row r="191" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="72" t="s">
@@ -11154,10 +11155,10 @@
       <c r="B191" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="127"/>
-      <c r="D191" s="127"/>
-      <c r="E191" s="127"/>
-      <c r="F191" s="127"/>
+      <c r="C191" s="115"/>
+      <c r="D191" s="115"/>
+      <c r="E191" s="115"/>
+      <c r="F191" s="115"/>
       <c r="G191" s="68"/>
       <c r="H191" s="69"/>
       <c r="I191" s="69"/>
@@ -11172,7 +11173,7 @@
       <c r="N191" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="O191" s="128"/>
+      <c r="O191" s="125"/>
     </row>
     <row r="192" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="73">
@@ -11181,10 +11182,10 @@
       <c r="B192" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="127"/>
-      <c r="D192" s="127"/>
-      <c r="E192" s="127"/>
-      <c r="F192" s="127"/>
+      <c r="C192" s="115"/>
+      <c r="D192" s="115"/>
+      <c r="E192" s="115"/>
+      <c r="F192" s="115"/>
       <c r="G192" s="68" t="s">
         <v>31</v>
       </c>
@@ -11203,7 +11204,7 @@
       <c r="N192" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="O192" s="128"/>
+      <c r="O192" s="125"/>
     </row>
     <row r="193" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="73">
@@ -11212,12 +11213,12 @@
       <c r="B193" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="127"/>
-      <c r="D193" s="127"/>
-      <c r="E193" s="152" t="s">
+      <c r="C193" s="115"/>
+      <c r="D193" s="115"/>
+      <c r="E193" s="120" t="s">
         <v>360</v>
       </c>
-      <c r="F193" s="127"/>
+      <c r="F193" s="115"/>
       <c r="G193" s="68" t="s">
         <v>31</v>
       </c>
@@ -11236,7 +11237,7 @@
       <c r="N193" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="O193" s="128"/>
+      <c r="O193" s="125"/>
     </row>
     <row r="194" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="73">
@@ -11245,10 +11246,10 @@
       <c r="B194" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="C194" s="127"/>
-      <c r="D194" s="127"/>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
+      <c r="C194" s="115"/>
+      <c r="D194" s="115"/>
+      <c r="E194" s="115"/>
+      <c r="F194" s="115"/>
       <c r="G194" s="68"/>
       <c r="H194" s="69"/>
       <c r="I194" s="69"/>
@@ -11265,7 +11266,7 @@
       <c r="N194" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="O194" s="128"/>
+      <c r="O194" s="125"/>
     </row>
     <row r="195" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="73">
@@ -11274,10 +11275,10 @@
       <c r="B195" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="C195" s="127"/>
-      <c r="D195" s="127"/>
-      <c r="E195" s="127"/>
-      <c r="F195" s="127"/>
+      <c r="C195" s="115"/>
+      <c r="D195" s="115"/>
+      <c r="E195" s="115"/>
+      <c r="F195" s="115"/>
       <c r="G195" s="68"/>
       <c r="H195" s="69"/>
       <c r="I195" s="69"/>
@@ -11292,7 +11293,7 @@
       <c r="N195" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="O195" s="128"/>
+      <c r="O195" s="125"/>
     </row>
     <row r="196" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="73">
@@ -11301,10 +11302,10 @@
       <c r="B196" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="C196" s="127"/>
-      <c r="D196" s="127"/>
-      <c r="E196" s="127"/>
-      <c r="F196" s="127"/>
+      <c r="C196" s="115"/>
+      <c r="D196" s="115"/>
+      <c r="E196" s="115"/>
+      <c r="F196" s="115"/>
       <c r="G196" s="68"/>
       <c r="H196" s="69"/>
       <c r="I196" s="69"/>
@@ -11319,7 +11320,7 @@
       <c r="N196" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="O196" s="128"/>
+      <c r="O196" s="125"/>
     </row>
     <row r="197" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="73">
@@ -11328,10 +11329,10 @@
       <c r="B197" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="C197" s="127"/>
-      <c r="D197" s="127"/>
-      <c r="E197" s="127"/>
-      <c r="F197" s="127"/>
+      <c r="C197" s="115"/>
+      <c r="D197" s="115"/>
+      <c r="E197" s="115"/>
+      <c r="F197" s="115"/>
       <c r="G197" s="68"/>
       <c r="H197" s="69"/>
       <c r="I197" s="69"/>
@@ -11346,7 +11347,7 @@
       <c r="N197" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="O197" s="128"/>
+      <c r="O197" s="125"/>
     </row>
     <row r="198" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="73">
@@ -11355,10 +11356,10 @@
       <c r="B198" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
+      <c r="C198" s="115"/>
+      <c r="D198" s="115"/>
+      <c r="E198" s="115"/>
+      <c r="F198" s="115"/>
       <c r="G198" s="69"/>
       <c r="H198" s="68" t="s">
         <v>31</v>
@@ -11375,7 +11376,7 @@
       <c r="N198" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="O198" s="128"/>
+      <c r="O198" s="125"/>
     </row>
     <row r="199" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="73">
@@ -11384,10 +11385,10 @@
       <c r="B199" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="127"/>
-      <c r="D199" s="127"/>
-      <c r="E199" s="127"/>
-      <c r="F199" s="127"/>
+      <c r="C199" s="115"/>
+      <c r="D199" s="115"/>
+      <c r="E199" s="115"/>
+      <c r="F199" s="115"/>
       <c r="G199" s="68" t="s">
         <v>31</v>
       </c>
@@ -11406,7 +11407,7 @@
       <c r="N199" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="O199" s="128"/>
+      <c r="O199" s="125"/>
     </row>
     <row r="200" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="73">
@@ -11415,10 +11416,10 @@
       <c r="B200" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="C200" s="127"/>
-      <c r="D200" s="127"/>
-      <c r="E200" s="127"/>
-      <c r="F200" s="127"/>
+      <c r="C200" s="115"/>
+      <c r="D200" s="115"/>
+      <c r="E200" s="115"/>
+      <c r="F200" s="115"/>
       <c r="G200" s="68" t="s">
         <v>31</v>
       </c>
@@ -11437,7 +11438,7 @@
       <c r="N200" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="O200" s="128"/>
+      <c r="O200" s="125"/>
     </row>
     <row r="201" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="73">
@@ -11446,12 +11447,12 @@
       <c r="B201" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="C201" s="127"/>
-      <c r="D201" s="127"/>
-      <c r="E201" s="152" t="s">
+      <c r="C201" s="115"/>
+      <c r="D201" s="115"/>
+      <c r="E201" s="120" t="s">
         <v>377</v>
       </c>
-      <c r="F201" s="127"/>
+      <c r="F201" s="115"/>
       <c r="G201" s="69"/>
       <c r="H201" s="68" t="s">
         <v>31</v>
@@ -11468,7 +11469,7 @@
       <c r="N201" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="O201" s="128"/>
+      <c r="O201" s="125"/>
     </row>
     <row r="202" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="73">
@@ -11477,10 +11478,10 @@
       <c r="B202" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="127"/>
-      <c r="D202" s="127"/>
-      <c r="E202" s="127"/>
-      <c r="F202" s="127"/>
+      <c r="C202" s="115"/>
+      <c r="D202" s="115"/>
+      <c r="E202" s="115"/>
+      <c r="F202" s="115"/>
       <c r="G202" s="69"/>
       <c r="H202" s="68" t="s">
         <v>31</v>
@@ -11499,7 +11500,7 @@
       <c r="N202" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="O202" s="128"/>
+      <c r="O202" s="125"/>
     </row>
     <row r="203" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="73">
@@ -11508,10 +11509,10 @@
       <c r="B203" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C203" s="127"/>
-      <c r="D203" s="127"/>
-      <c r="E203" s="127"/>
-      <c r="F203" s="127"/>
+      <c r="C203" s="115"/>
+      <c r="D203" s="115"/>
+      <c r="E203" s="115"/>
+      <c r="F203" s="115"/>
       <c r="G203" s="69"/>
       <c r="H203" s="68" t="s">
         <v>31</v>
@@ -11528,7 +11529,7 @@
       <c r="N203" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="O203" s="128"/>
+      <c r="O203" s="125"/>
     </row>
     <row r="204" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="73">
@@ -11537,10 +11538,10 @@
       <c r="B204" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="C204" s="127"/>
-      <c r="D204" s="127"/>
-      <c r="E204" s="127"/>
-      <c r="F204" s="127"/>
+      <c r="C204" s="115"/>
+      <c r="D204" s="115"/>
+      <c r="E204" s="115"/>
+      <c r="F204" s="115"/>
       <c r="G204" s="69"/>
       <c r="H204" s="68" t="s">
         <v>31</v>
@@ -11557,7 +11558,7 @@
       <c r="N204" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="O204" s="128"/>
+      <c r="O204" s="125"/>
     </row>
     <row r="205" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="73">
@@ -11566,10 +11567,10 @@
       <c r="B205" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="C205" s="127"/>
-      <c r="D205" s="127"/>
-      <c r="E205" s="127"/>
-      <c r="F205" s="127"/>
+      <c r="C205" s="115"/>
+      <c r="D205" s="115"/>
+      <c r="E205" s="115"/>
+      <c r="F205" s="115"/>
       <c r="G205" s="69"/>
       <c r="H205" s="68" t="s">
         <v>31</v>
@@ -11586,7 +11587,7 @@
       <c r="N205" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="O205" s="128"/>
+      <c r="O205" s="125"/>
     </row>
     <row r="206" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="73">
@@ -11595,10 +11596,10 @@
       <c r="B206" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="C206" s="127"/>
-      <c r="D206" s="127"/>
-      <c r="E206" s="127"/>
-      <c r="F206" s="127"/>
+      <c r="C206" s="115"/>
+      <c r="D206" s="115"/>
+      <c r="E206" s="115"/>
+      <c r="F206" s="115"/>
       <c r="G206" s="69"/>
       <c r="H206" s="68" t="s">
         <v>31</v>
@@ -11615,7 +11616,7 @@
       <c r="N206" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="O206" s="128"/>
+      <c r="O206" s="125"/>
     </row>
     <row r="207" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="73">
@@ -11624,10 +11625,10 @@
       <c r="B207" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="C207" s="127"/>
-      <c r="D207" s="127"/>
-      <c r="E207" s="127"/>
-      <c r="F207" s="127"/>
+      <c r="C207" s="115"/>
+      <c r="D207" s="115"/>
+      <c r="E207" s="115"/>
+      <c r="F207" s="115"/>
       <c r="G207" s="69"/>
       <c r="H207" s="69"/>
       <c r="I207" s="68" t="s">
@@ -11644,7 +11645,7 @@
       <c r="N207" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="O207" s="128"/>
+      <c r="O207" s="125"/>
     </row>
     <row r="208" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="73">
@@ -11653,10 +11654,10 @@
       <c r="B208" s="68" t="s">
         <v>391</v>
       </c>
-      <c r="C208" s="127"/>
-      <c r="D208" s="127"/>
-      <c r="E208" s="127"/>
-      <c r="F208" s="127"/>
+      <c r="C208" s="115"/>
+      <c r="D208" s="115"/>
+      <c r="E208" s="115"/>
+      <c r="F208" s="115"/>
       <c r="G208" s="69"/>
       <c r="H208" s="69"/>
       <c r="I208" s="69"/>
@@ -11675,7 +11676,7 @@
       <c r="N208" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="O208" s="128"/>
+      <c r="O208" s="125"/>
     </row>
     <row r="209" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="73">
@@ -11684,10 +11685,10 @@
       <c r="B209" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="C209" s="127"/>
-      <c r="D209" s="127"/>
-      <c r="E209" s="127"/>
-      <c r="F209" s="127"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
       <c r="G209" s="68" t="s">
         <v>31</v>
       </c>
@@ -11708,7 +11709,7 @@
       <c r="N209" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="O209" s="128"/>
+      <c r="O209" s="125"/>
     </row>
     <row r="210" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="73">
@@ -11717,10 +11718,10 @@
       <c r="B210" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="C210" s="127"/>
-      <c r="D210" s="127"/>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
+      <c r="C210" s="115"/>
+      <c r="D210" s="115"/>
+      <c r="E210" s="115"/>
+      <c r="F210" s="115"/>
       <c r="G210" s="69"/>
       <c r="H210" s="69"/>
       <c r="I210" s="68" t="s">
@@ -11737,7 +11738,7 @@
       <c r="N210" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="O210" s="128"/>
+      <c r="O210" s="125"/>
     </row>
     <row r="211" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="73">
@@ -11746,10 +11747,10 @@
       <c r="B211" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="C211" s="127"/>
-      <c r="D211" s="127"/>
-      <c r="E211" s="127"/>
-      <c r="F211" s="127"/>
+      <c r="C211" s="115"/>
+      <c r="D211" s="115"/>
+      <c r="E211" s="115"/>
+      <c r="F211" s="115"/>
       <c r="G211" s="69"/>
       <c r="H211" s="68"/>
       <c r="I211" s="68"/>
@@ -11766,7 +11767,7 @@
       <c r="N211" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="128"/>
+      <c r="O211" s="125"/>
     </row>
     <row r="212" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="74">
@@ -11775,10 +11776,10 @@
       <c r="B212" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="C212" s="151"/>
-      <c r="D212" s="151"/>
-      <c r="E212" s="151"/>
-      <c r="F212" s="151"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
+      <c r="F212" s="119"/>
       <c r="G212" s="76"/>
       <c r="H212" s="75" t="s">
         <v>31</v>
@@ -11799,7 +11800,7 @@
       <c r="N212" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="O212" s="154"/>
+      <c r="O212" s="126"/>
     </row>
     <row r="213" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12680,52 +12681,6 @@
     <row r="1089" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C6:C23"/>
-    <mergeCell ref="D24:D38"/>
-    <mergeCell ref="C43:C61"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D61"/>
-    <mergeCell ref="F183:F212"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F45:F56"/>
-    <mergeCell ref="E201:E212"/>
-    <mergeCell ref="E183:E192"/>
-    <mergeCell ref="E43:E61"/>
-    <mergeCell ref="E193:E200"/>
-    <mergeCell ref="A182:O182"/>
-    <mergeCell ref="C64:C92"/>
-    <mergeCell ref="C93:C143"/>
-    <mergeCell ref="C144:C180"/>
-    <mergeCell ref="O183:O212"/>
-    <mergeCell ref="D183:D212"/>
-    <mergeCell ref="C183:C212"/>
-    <mergeCell ref="E64:E77"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D144:D180"/>
-    <mergeCell ref="E118:E143"/>
-    <mergeCell ref="E144:E168"/>
-    <mergeCell ref="O78:O92"/>
-    <mergeCell ref="E78:E92"/>
-    <mergeCell ref="E93:E117"/>
-    <mergeCell ref="D64:D92"/>
-    <mergeCell ref="O169:O180"/>
-    <mergeCell ref="E169:E174"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="F128:F143"/>
-    <mergeCell ref="F144:F168"/>
-    <mergeCell ref="F169:F180"/>
-    <mergeCell ref="O128:O143"/>
-    <mergeCell ref="O144:O168"/>
     <mergeCell ref="F6:F23"/>
     <mergeCell ref="F24:F42"/>
     <mergeCell ref="F43:F44"/>
@@ -12742,6 +12697,52 @@
     <mergeCell ref="D93:D143"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="E24:E42"/>
+    <mergeCell ref="D64:D92"/>
+    <mergeCell ref="O169:O180"/>
+    <mergeCell ref="E169:E174"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="F128:F143"/>
+    <mergeCell ref="F144:F168"/>
+    <mergeCell ref="F169:F180"/>
+    <mergeCell ref="O128:O143"/>
+    <mergeCell ref="O144:O168"/>
+    <mergeCell ref="E118:E143"/>
+    <mergeCell ref="E144:E168"/>
+    <mergeCell ref="O78:O92"/>
+    <mergeCell ref="E78:E92"/>
+    <mergeCell ref="E93:E117"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F183:F212"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F45:F56"/>
+    <mergeCell ref="E201:E212"/>
+    <mergeCell ref="E183:E192"/>
+    <mergeCell ref="E43:E61"/>
+    <mergeCell ref="E193:E200"/>
+    <mergeCell ref="A182:O182"/>
+    <mergeCell ref="C64:C92"/>
+    <mergeCell ref="C93:C143"/>
+    <mergeCell ref="C144:C180"/>
+    <mergeCell ref="O183:O212"/>
+    <mergeCell ref="D183:D212"/>
+    <mergeCell ref="C183:C212"/>
+    <mergeCell ref="E64:E77"/>
+    <mergeCell ref="D144:D180"/>
+    <mergeCell ref="C6:C23"/>
+    <mergeCell ref="D24:D38"/>
+    <mergeCell ref="C43:C61"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D61"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
